--- a/1.2017 정규교육 연간일정표★최종★공개교육.xlsx
+++ b/1.2017 정규교육 연간일정표★최종★공개교육.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="361">
   <si>
     <t>구분</t>
   </si>
@@ -118,10 +118,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>23-25서울</t>
   </si>
   <si>
@@ -140,19 +136,10 @@
     <t>12-14서울</t>
   </si>
   <si>
-    <t xml:space="preserve">4-6경남
-12-14아산 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>21-23대전</t>
   </si>
   <si>
     <t>4-6울산</t>
-  </si>
-  <si>
-    <t>23-25서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1-3청주
@@ -190,11 +177,6 @@
     <t>20-21서울</t>
   </si>
   <si>
-    <t>17-18전주
-20-21수원</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>8-9서울</t>
   </si>
   <si>
@@ -204,19 +186,10 @@
     <t>3-4서울</t>
   </si>
   <si>
-    <t>21-22서울
-24-25안산</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>12-13전주</t>
   </si>
   <si>
     <t>16-17서울</t>
-  </si>
-  <si>
-    <t>9-10서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>품질경영 종합 추진 실무</t>
@@ -241,15 +214,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2-3서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>24-25서울</t>
-  </si>
-  <si>
-    <t>20-21서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>29-30서울</t>
@@ -259,10 +224,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>20-22서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>21-23안산</t>
   </si>
   <si>
@@ -273,14 +234,6 @@
   </si>
   <si>
     <t>28-30부산</t>
-  </si>
-  <si>
-    <t>17-19서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>25-27서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>13-15서울</t>
@@ -325,10 +278,6 @@
     <t>3-7서울</t>
   </si>
   <si>
-    <t>28-9.1대구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>23-27대전</t>
   </si>
   <si>
@@ -358,18 +307,6 @@
   </si>
   <si>
     <t>PL과 리콜 대응 제품 안전 경영(PSM)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-8서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>26-28서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>30-11.1서울</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -429,11 +366,6 @@
     <t xml:space="preserve">14-16전주22-24부산  </t>
   </si>
   <si>
-    <t>13-15서울
-29-31대구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>19-21안산
 25-27경남</t>
   </si>
@@ -522,10 +454,6 @@
     <t>26-27서울</t>
   </si>
   <si>
-    <t>17-18서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>7-8청주</t>
   </si>
   <si>
@@ -586,9 +514,6 @@
   </si>
   <si>
     <t>7-10울산</t>
-  </si>
-  <si>
-    <t>9-12서울</t>
   </si>
   <si>
     <t>20-23서울</t>
@@ -680,10 +605,6 @@
     <t>7-8서울</t>
   </si>
   <si>
-    <t>7-8서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>품질 개선
 (QI)</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -703,42 +624,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>15-17서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>28-30서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>25-27서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>융합 역량 개발 시리즈 3 : 창의적 개선 장치 개발</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>27-28서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>30-12.1서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>융합 역량 개발 시리즈 4 : 디지털 센서 기술 활용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>29-30서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-5서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>현장 낭비 제거를 통한 품질 코스트 개선</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -751,10 +636,6 @@
   <si>
     <t>8-9수원
 15-16울산</t>
-  </si>
-  <si>
-    <t>28-29서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>신뢰성
@@ -826,10 +707,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>7-9서을</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>20-22서울</t>
   </si>
   <si>
@@ -837,10 +714,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>16-18서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>개발 기간 단축을 위한 가속 수명 시험(ALT) 실무</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -855,10 +728,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>8-10서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>21-23서울</t>
   </si>
   <si>
@@ -883,34 +752,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-7서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>26-27서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>25-26서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>엔지니어링 문제 해결(EPS) 기법</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>15-17서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>24-26서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>개발 품질 혁신을 위한 품질 기능 전개(QFD) 실무</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -965,9 +810,6 @@
   <si>
     <t>18-21울산
 25-28부산</t>
-  </si>
-  <si>
-    <t>9-12아산</t>
   </si>
   <si>
     <t>7-10수원</t>
@@ -1060,93 +902,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>4일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20-23서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>24-27서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터 사이언스 전략 평가 및 개선</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>29-31서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>제조 현장의 문제 해결을 위한 데이터 사이언스 기본</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>19-22서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터 사이언스를 활용한 제조 현장 문제 해결 기법</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>31-9.1서울</t>
-  </si>
-  <si>
-    <t>6-7서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NCS 자격 기반</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 품질경영</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>품질 기획
-(QP)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♣</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">품질 전략 수립        </t>
@@ -1261,11 +1029,6 @@
     <t>8-10인천</t>
   </si>
   <si>
-    <t>6-8대구
-27-29서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">16-18울산
 24-26안산
 25-27경남  </t>
@@ -1287,47 +1050,21 @@
     <t xml:space="preserve">품질경영시스템 인증관리      </t>
   </si>
   <si>
-    <t>21-22서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>26-27아산</t>
   </si>
   <si>
-    <t>품질 보증
-(QA)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">품질 검사관리            </t>
   </si>
   <si>
-    <t xml:space="preserve">품질보증 체계 확립      </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>3-4부산</t>
   </si>
   <si>
-    <t>1-2서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">협력사 품질관리         </t>
   </si>
   <si>
-    <t>22-23서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>4-5아산</t>
   </si>
   <si>
-    <t>품질 개선
-(QI)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">지속적 개선 활동         </t>
   </si>
   <si>
@@ -1338,12 +1075,6 @@
   </si>
   <si>
     <t>17-18아산</t>
-  </si>
-  <si>
-    <t>신뢰성 
-·
-설계 품질</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">신뢰성 관리         </t>
@@ -1360,14 +1091,6 @@
   </si>
   <si>
     <t xml:space="preserve">설계 품질관리      </t>
-  </si>
-  <si>
-    <t>26-28서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>27-29서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1390,6 +1113,236 @@
     <t>※         부분 클릭시 교육내용 및 신청페이지로 이동합니다!</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">4-6경남
+12-14아산 </t>
+  </si>
+  <si>
+    <t>17-18전주
+20-21수원</t>
+  </si>
+  <si>
+    <t>21-22서울
+24-25안산</t>
+  </si>
+  <si>
+    <t>28-9.1대구</t>
+  </si>
+  <si>
+    <t>30-11.1서울</t>
+  </si>
+  <si>
+    <t>13-15서울
+29-31대구</t>
+  </si>
+  <si>
+    <t>18-21서울
+18-21부산</t>
+  </si>
+  <si>
+    <t>23-26서울</t>
+  </si>
+  <si>
+    <t>25-28서울</t>
+  </si>
+  <si>
+    <t>7-9서을</t>
+  </si>
+  <si>
+    <t>2일</t>
+  </si>
+  <si>
+    <t>31-6.2서울</t>
+  </si>
+  <si>
+    <t>16-19아산</t>
+  </si>
+  <si>
+    <t>4일</t>
+  </si>
+  <si>
+    <t>19-22서울</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NCS 자격 기반</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 품질경영</t>
+    </r>
+  </si>
+  <si>
+    <t>품질기획
+(QP)</t>
+  </si>
+  <si>
+    <r>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>♣</t>
+    </r>
+  </si>
+  <si>
+    <t>6-8대구
+27-29서울</t>
+  </si>
+  <si>
+    <t>스마트 기기를 활용한 품질관리 노하우</t>
+  </si>
+  <si>
+    <t>22-23인천
+24-25울산</t>
+  </si>
+  <si>
+    <t>품질 리스크 최소화를 위한 제품안전관리</t>
+  </si>
+  <si>
+    <t>15-16창원</t>
+  </si>
+  <si>
+    <t>19-20인천</t>
+  </si>
+  <si>
+    <t>23-24울산</t>
+  </si>
+  <si>
+    <t>통계 패키지를 활용한 공정문제해결</t>
+  </si>
+  <si>
+    <t>12-13창원</t>
+  </si>
+  <si>
+    <t>26-27울산</t>
+  </si>
+  <si>
+    <t>품질보증
+(QA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">품질보증 체계 확립      </t>
+  </si>
+  <si>
+    <t>품질개선
+(QI)</t>
+  </si>
+  <si>
+    <t>융합적 사고기법을 적용한 품질개선활동</t>
+  </si>
+  <si>
+    <t>25-26전주</t>
+  </si>
+  <si>
+    <t>17-18인천</t>
+  </si>
+  <si>
+    <t>고객 불만 제로화를 위한 품질개선 노하우</t>
+  </si>
+  <si>
+    <t>20-21청주</t>
+  </si>
+  <si>
+    <t>19-20안산</t>
+  </si>
+  <si>
+    <t>16-17전주
+21-22수원
+30-12.1서울</t>
+  </si>
+  <si>
+    <t>신뢰성 
+·
+설계 품질</t>
+  </si>
+  <si>
+    <t>품질경영(QM)</t>
+  </si>
+  <si>
+    <t>스토리텔링으로 배우는 품질경영 노하우</t>
+  </si>
+  <si>
+    <t>30-31인천</t>
+  </si>
+  <si>
+    <t>1-2울산
+29-30서울</t>
+  </si>
+  <si>
+    <t>7-8안산
+19-20전주</t>
+  </si>
+  <si>
+    <t>중소기업특별 (고용보험환급과정)</t>
+  </si>
+  <si>
+    <t>24-25서울
+23-24수원
+23-24청주</t>
+  </si>
+  <si>
+    <t>6-7수원
+10-11아산</t>
+  </si>
+  <si>
+    <t>27-28부산</t>
+  </si>
+  <si>
+    <t>13-14청주</t>
+  </si>
+  <si>
+    <t>29-30부산</t>
+  </si>
+  <si>
+    <t>눈으로 보는 품질관리 스킬업(Skill-Up)</t>
+  </si>
+  <si>
+    <t>28-29원주
+30-31대전</t>
+  </si>
+  <si>
+    <t>13-14울산</t>
+  </si>
+  <si>
+    <t>22-23창원
+25-26청주</t>
+  </si>
+  <si>
+    <t>1-2수원</t>
+  </si>
+  <si>
+    <t>19-20구미</t>
+  </si>
+  <si>
+    <t>21-22안산
+30-12.1아산</t>
+  </si>
 </sst>
 </file>
 
@@ -1401,7 +1354,7 @@
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="178" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1693,6 +1646,36 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1738,7 +1721,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1844,8 +1827,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="76">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2073,8 +2071,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2108,27 +2109,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2138,84 +2118,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2237,42 +2163,9 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2300,11 +2193,41 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2312,47 +2235,254 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" xfId="76" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="9" xfId="76" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="76">
+  <cellStyles count="77">
     <cellStyle name="쉼표 [0] 10" xfId="3"/>
     <cellStyle name="쉼표 [0] 11" xfId="4"/>
     <cellStyle name="쉼표 [0] 11 2" xfId="5"/>
@@ -2428,6 +2558,7 @@
     <cellStyle name="표준 7" xfId="73"/>
     <cellStyle name="표준 8" xfId="74"/>
     <cellStyle name="표준 9" xfId="1"/>
+    <cellStyle name="하이퍼링크" xfId="76" builtinId="8"/>
     <cellStyle name="하이퍼링크 2" xfId="75"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2446,13 +2577,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>875242</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>131234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1132385</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>285995</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2484,13 +2615,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>99483</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1076293</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>261388</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2522,13 +2653,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>865717</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>156633</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1122860</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>318538</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2560,13 +2691,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>732367</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>129117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>989510</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>291022</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2598,13 +2729,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>980017</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>112183</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1237160</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>274088</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2636,13 +2767,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1016000</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>137583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1273143</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>299488</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2674,13 +2805,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>946150</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1203293</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>250805</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2712,13 +2843,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1400143</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>257154</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2750,13 +2881,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>872066</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>131234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1129209</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>293139</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2788,13 +2919,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1479550</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>135466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1736693</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>297371</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2826,13 +2957,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>827617</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>97367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1084760</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>259272</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2864,13 +2995,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>730250</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>987393</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>257155</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2902,13 +3033,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1147233</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>78316</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1404376</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>240221</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2940,13 +3071,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1013883</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>71967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1271026</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>233872</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2978,13 +3109,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>944034</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1201177</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>269855</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3016,13 +3147,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>846667</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>116416</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1103810</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>278321</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3288,8 +3419,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3345,8 +3476,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>392430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3402,8 +3533,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>392430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3459,8 +3590,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>392430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3516,8 +3647,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3801,8 +3932,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>392430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3858,8 +3989,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>392430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3915,8 +4046,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>392430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3972,8 +4103,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4258,7 +4389,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4314,8 +4445,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>392430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4371,8 +4502,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>392430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4428,8 +4559,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4490,122 +4621,8 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
+        <xdr:cNvPr id="45" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5304472" y="10582275"/>
-          <a:ext cx="358140" cy="363855"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>382905</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5304472" y="10972800"/>
-          <a:ext cx="358140" cy="363855"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>382905</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -4650,19 +4667,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="46" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -4707,19 +4724,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>392430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="47" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -4764,19 +4781,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>392430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="48" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -4821,19 +4838,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>392430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="49" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -4878,19 +4895,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="50" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -4935,19 +4952,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>382905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="51" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -4992,19 +5009,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>382905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="52" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -5049,19 +5066,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>382905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="53" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -5106,19 +5123,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="54" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -5163,19 +5180,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>392430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="55" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -5220,19 +5237,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>392430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="56" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -5277,19 +5294,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>392430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="57" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -5334,19 +5351,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="58" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -5391,19 +5408,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>382905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="59" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId44"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -5448,19 +5465,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>382905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="60" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -5505,19 +5522,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>382905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="61" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId44"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -5562,19 +5579,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="62" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -5619,19 +5636,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>392430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="63" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId48"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -5676,19 +5693,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>392430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="64" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -5733,19 +5750,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="65" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId50"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId48"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -5790,19 +5807,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="66" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -5847,19 +5864,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="67" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId52"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId50"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -5904,19 +5921,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="68" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -5961,19 +5978,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>382905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="69" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId54"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId52"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -6018,19 +6035,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>382905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="70" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -6075,19 +6092,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>382905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="71" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId56"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId54"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -6132,19 +6149,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>392430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="72" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -6189,19 +6206,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>392430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="73" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId58"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId56"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -6246,19 +6263,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>392430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="74" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -6303,19 +6320,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>392430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="75" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId60"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId58"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -6360,19 +6377,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>392430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="76" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -6417,19 +6434,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="77" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId62"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId60"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -6474,19 +6491,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>382905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="78" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -6531,19 +6548,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>382905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="79" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId64"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId62"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -6588,19 +6605,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>382905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="80" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -6645,19 +6662,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>392430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="81" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId66"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId64"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -6702,19 +6719,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>392430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="82" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId67"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -6759,19 +6776,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>392430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="83" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId68"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId66"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -6816,19 +6833,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>392430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="84" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId69"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId67"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -6873,19 +6890,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>392430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="85" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId70"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId68"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -6930,19 +6947,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="86" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId71"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId69"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -6987,19 +7004,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>382905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="87" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId72"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId70"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -7388,35 +7405,35 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U77"/>
+  <dimension ref="A1:U86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="4" topLeftCell="J73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="4" topLeftCell="J59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F83" sqref="F83"/>
+      <selection pane="bottomRight" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.75" style="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.375" style="67" customWidth="1"/>
-    <col min="4" max="4" width="47.75" style="68" customWidth="1"/>
-    <col min="5" max="5" width="7.375" style="68" customWidth="1"/>
+    <col min="2" max="2" width="4.75" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="47.75" style="32" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="32" customWidth="1"/>
     <col min="6" max="7" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.375" style="69" customWidth="1"/>
-    <col min="12" max="12" width="10.75" style="69" customWidth="1"/>
-    <col min="13" max="13" width="9.375" style="69" customWidth="1"/>
-    <col min="14" max="14" width="9" style="69" customWidth="1"/>
-    <col min="15" max="15" width="9.75" style="69" customWidth="1"/>
-    <col min="16" max="16" width="9.875" style="69" customWidth="1"/>
-    <col min="17" max="17" width="10.125" style="69" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.625" style="69" customWidth="1"/>
-    <col min="19" max="19" width="10.125" style="69" customWidth="1"/>
-    <col min="20" max="20" width="10.375" style="69" customWidth="1"/>
-    <col min="21" max="21" width="8.25" style="69" customWidth="1"/>
+    <col min="10" max="11" width="9.375" style="33" customWidth="1"/>
+    <col min="12" max="12" width="10.75" style="33" customWidth="1"/>
+    <col min="13" max="13" width="9.375" style="33" customWidth="1"/>
+    <col min="14" max="14" width="9" style="33" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="33" customWidth="1"/>
+    <col min="16" max="16" width="9.875" style="33" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="33" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.625" style="33" customWidth="1"/>
+    <col min="19" max="19" width="10.125" style="33" customWidth="1"/>
+    <col min="20" max="20" width="10.375" style="33" customWidth="1"/>
+    <col min="21" max="21" width="8.25" style="33" customWidth="1"/>
     <col min="22" max="22" width="7.25" style="1" customWidth="1"/>
     <col min="23" max="23" width="24.5" style="1" customWidth="1"/>
     <col min="24" max="16384" width="8.75" style="1"/>
@@ -7424,117 +7441,117 @@
   <sheetData>
     <row r="1" spans="1:21" customFormat="1" ht="33" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="70" t="s">
-        <v>361</v>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="34" t="s">
+        <v>303</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
     </row>
     <row r="2" spans="1:21" customFormat="1" ht="16.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="72" t="s">
-        <v>360</v>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="36" t="s">
+        <v>302</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
     </row>
     <row r="3" spans="1:21" ht="18" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="89" t="s">
+      <c r="F3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89" t="s">
+      <c r="G3" s="39"/>
+      <c r="H3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="89" t="s">
+      <c r="K3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="89" t="s">
+      <c r="L3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="89" t="s">
+      <c r="M3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="89" t="s">
+      <c r="N3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="89" t="s">
+      <c r="O3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="89" t="s">
+      <c r="P3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89" t="s">
+      <c r="Q3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="89" t="s">
+      <c r="R3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="89" t="s">
+      <c r="S3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="89" t="s">
+      <c r="T3" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="89" t="s">
+      <c r="U3" s="39" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="18" customHeight="1">
-      <c r="A4" s="89"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="91"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
@@ -7547,18 +7564,18 @@
       <c r="I4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
     </row>
     <row r="5" spans="1:21" ht="36" customHeight="1">
       <c r="A5" s="3" t="s">
@@ -7568,12 +7585,12 @@
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="82" t="s">
+      <c r="F5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
       <c r="J5" s="7" t="s">
         <v>6</v>
       </c>
@@ -7612,7 +7629,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="40.5">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="45" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="8">
@@ -7625,550 +7642,550 @@
         <v>26</v>
       </c>
       <c r="E6"/>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6" s="59">
+        <v>18</v>
+      </c>
+      <c r="H6" s="60">
+        <v>510</v>
+      </c>
+      <c r="I6" s="60">
+        <v>560</v>
+      </c>
+      <c r="J6" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="12">
-        <v>18</v>
-      </c>
-      <c r="H6" s="13">
-        <v>510</v>
-      </c>
-      <c r="I6" s="13">
-        <v>560</v>
-      </c>
-      <c r="J6" s="14" t="s">
+      <c r="K6" s="62"/>
+      <c r="L6" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16" t="s">
+      <c r="M6" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="N6" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="16" t="s">
+      <c r="O6" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="P6" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q6" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="R6" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="S6" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="U6" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="T6" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="U6" s="15" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="7" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A7" s="85"/>
+    <row r="7" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A7" s="46"/>
       <c r="B7" s="8">
         <v>2</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="58">
+        <v>2</v>
+      </c>
+      <c r="G7" s="59">
+        <v>16</v>
+      </c>
+      <c r="H7" s="60">
+        <v>400</v>
+      </c>
+      <c r="I7" s="60">
+        <v>440</v>
+      </c>
+      <c r="J7" s="61"/>
+      <c r="K7" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="11">
-        <v>2</v>
-      </c>
-      <c r="G7" s="12">
-        <v>16</v>
-      </c>
-      <c r="H7" s="13">
-        <v>400</v>
-      </c>
-      <c r="I7" s="13">
-        <v>440</v>
-      </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15" t="s">
+      <c r="M7" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="N7" s="63" t="s">
+        <v>271</v>
+      </c>
+      <c r="O7" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="P7" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="Q7" s="65" t="s">
+        <v>306</v>
+      </c>
+      <c r="R7" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="S7" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q7" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="R7" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="S7" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="T7" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="U7" s="15"/>
+      <c r="T7" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="U7" s="62"/>
     </row>
-    <row r="8" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A8" s="85"/>
+    <row r="8" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A8" s="46"/>
       <c r="B8" s="8">
         <v>3</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="11">
+      <c r="D8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="58">
         <v>5</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="59">
         <v>36</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="60">
         <v>690</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="60">
         <v>760</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="S8" s="15"/>
-      <c r="T8" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="U8" s="15"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="61"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="S8" s="62"/>
+      <c r="T8" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="U8" s="62"/>
     </row>
-    <row r="9" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A9" s="84" t="s">
-        <v>55</v>
+    <row r="9" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A9" s="45" t="s">
+        <v>49</v>
       </c>
       <c r="B9" s="8">
         <v>4</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="67">
+        <v>2</v>
+      </c>
+      <c r="G9" s="68">
+        <v>16</v>
+      </c>
+      <c r="H9" s="60">
+        <v>400</v>
+      </c>
+      <c r="I9" s="60">
+        <v>440</v>
+      </c>
+      <c r="J9" s="61"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="61" t="s">
+        <v>255</v>
+      </c>
+      <c r="M9" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="61"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24">
-        <v>2</v>
-      </c>
-      <c r="G9" s="25">
-        <v>16</v>
-      </c>
-      <c r="H9" s="13">
-        <v>400</v>
-      </c>
-      <c r="I9" s="13">
-        <v>440</v>
-      </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="U9" s="15"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="U9" s="62"/>
     </row>
-    <row r="10" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A10" s="85"/>
+    <row r="10" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A10" s="46"/>
       <c r="B10" s="8">
         <v>5</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="11">
+      <c r="F10" s="58">
         <v>3</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="59">
         <v>18</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="60">
         <v>490</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="60">
         <v>550</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="P10" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="S10" s="15"/>
-      <c r="T10" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="U10" s="15"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="S10" s="62"/>
+      <c r="T10" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="U10" s="62"/>
     </row>
-    <row r="11" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A11" s="86"/>
+    <row r="11" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A11" s="47"/>
       <c r="B11" s="8">
         <v>6</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="11">
+      <c r="C11" s="15"/>
+      <c r="D11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="58">
         <v>4</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="59">
         <v>27</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="60">
         <v>640</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="60">
         <v>700</v>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="N11" s="14"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="T11" s="14"/>
-      <c r="U11" s="15"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="N11" s="61"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="T11" s="61"/>
+      <c r="U11" s="62"/>
     </row>
-    <row r="12" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A12" s="84" t="s">
-        <v>74</v>
+    <row r="12" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A12" s="45" t="s">
+        <v>63</v>
       </c>
       <c r="B12" s="8">
         <v>7</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="11">
+      <c r="C12" s="15"/>
+      <c r="D12" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="58">
         <v>5</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="59">
         <v>36</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="60">
         <v>690</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="60">
         <v>760</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="O12" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q12" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="R12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="S12" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="T12" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="U12" s="15"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="N12" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="O12" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="69" t="s">
+        <v>307</v>
+      </c>
+      <c r="R12" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="S12" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="T12" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="U12" s="62"/>
     </row>
-    <row r="13" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A13" s="85"/>
+    <row r="13" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A13" s="46"/>
       <c r="B13" s="8">
         <v>8</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="11">
+      <c r="C13" s="15"/>
+      <c r="D13" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="58">
         <v>5</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="59">
         <v>36</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="60">
         <v>720</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="60">
         <v>770</v>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="M13" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="N13" s="14"/>
-      <c r="O13" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="P13" s="14" t="s">
+      <c r="J13" s="61"/>
+      <c r="K13" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="61"/>
+      <c r="O13" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="S13" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="S13" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="T13" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="U13" s="15"/>
+      <c r="T13" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="U13" s="62"/>
     </row>
-    <row r="14" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A14" s="85"/>
+    <row r="14" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A14" s="46"/>
       <c r="B14" s="8">
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="11">
+      <c r="D14" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="58">
         <v>3</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="59">
         <v>18</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="60">
         <v>490</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="60">
         <v>550</v>
       </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="15" t="s">
+      <c r="J14" s="61"/>
+      <c r="K14" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="T14" s="14"/>
-      <c r="U14" s="15"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="62" t="s">
+        <v>308</v>
+      </c>
+      <c r="T14" s="61"/>
+      <c r="U14" s="62"/>
     </row>
-    <row r="15" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A15" s="85"/>
+    <row r="15" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A15" s="46"/>
       <c r="B15" s="8">
         <v>10</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="11">
+      <c r="D15" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="58">
         <v>3</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="59">
         <v>18</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="60">
         <v>540</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="60">
         <v>590</v>
       </c>
-      <c r="J15" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="M15" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="O15" s="22"/>
-      <c r="P15" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q15" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="R15" s="14"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="U15" s="15"/>
+      <c r="J15" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="62"/>
+      <c r="L15" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="O15" s="66"/>
+      <c r="P15" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q15" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="R15" s="61"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="U15" s="62"/>
     </row>
-    <row r="16" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A16" s="86"/>
+    <row r="16" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A16" s="47"/>
       <c r="B16" s="8">
         <v>11</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E16" s="10"/>
-      <c r="F16" s="11">
+      <c r="F16" s="58">
         <v>3</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="59">
         <v>18</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="60">
         <v>540</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="60">
         <v>590</v>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="M16" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="O16" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="R16" s="14"/>
-      <c r="S16" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="T16" s="14"/>
-      <c r="U16" s="29" t="s">
-        <v>109</v>
+      <c r="J16" s="61"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="M16" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="N16" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="O16" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16" s="61"/>
+      <c r="S16" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="T16" s="61"/>
+      <c r="U16" s="70" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="40.5">
-      <c r="A17" s="84" t="s">
-        <v>110</v>
+      <c r="A17" s="45" t="s">
+        <v>95</v>
       </c>
       <c r="B17" s="8">
         <v>12</v>
@@ -8176,2865 +8193,3277 @@
       <c r="C17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="11">
+      <c r="D17" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="58">
         <v>3</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="59">
         <v>18</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="60">
         <v>490</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="60">
         <v>550</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="M17" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="N17" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="O17" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="K17" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="L17" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="M17" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="N17" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="O17" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="P17" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q17" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="R17" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="S17" s="15"/>
-      <c r="T17" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="U17" s="15"/>
+      <c r="R17" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="S17" s="62"/>
+      <c r="T17" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="U17" s="62"/>
     </row>
     <row r="18" spans="1:21" ht="40.5">
-      <c r="A18" s="85"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="8">
         <v>13</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="11">
+      <c r="D18" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="58">
         <v>4</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="59">
         <v>27</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="60">
         <v>580</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="60">
         <v>640</v>
       </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="N18" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="O18" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="P18" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q18" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="R18" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="S18" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="T18" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="U18" s="15"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="L18" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="M18" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="N18" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="O18" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="P18" s="63" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q18" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="R18" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="S18" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="T18" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="U18" s="62"/>
     </row>
-    <row r="19" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A19" s="86"/>
+    <row r="19" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A19" s="47"/>
       <c r="B19" s="8">
         <v>14</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="11">
+      <c r="D19" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="58">
         <v>3</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="59">
         <v>18</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="60">
         <v>490</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="60">
         <v>550</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="O19" s="15"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="R19" s="14"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="U19" s="15"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="L19" s="61"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="O19" s="62"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="R19" s="61"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="U19" s="62"/>
     </row>
-    <row r="20" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A20" s="87" t="s">
-        <v>134</v>
+    <row r="20" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A20" s="48" t="s">
+        <v>118</v>
       </c>
       <c r="B20" s="8">
         <v>15</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="11">
+      <c r="D20" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="58">
         <v>2</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="59">
         <v>16</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="60">
         <v>400</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="60">
         <v>440</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="N20" s="14"/>
-      <c r="O20" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="R20" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="S20" s="15"/>
-      <c r="T20" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="U20" s="22" t="s">
-        <v>142</v>
+      <c r="J20" s="61"/>
+      <c r="K20" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="L20" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="M20" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="N20" s="61"/>
+      <c r="O20" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="62" t="s">
+        <v>263</v>
+      </c>
+      <c r="R20" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="S20" s="62"/>
+      <c r="T20" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="U20" s="66" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A21" s="87"/>
+    <row r="21" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A21" s="48"/>
       <c r="B21" s="8">
         <v>16</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E21" s="10"/>
-      <c r="F21" s="11">
+      <c r="F21" s="58">
         <v>3</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="59">
         <v>18</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="60">
         <v>490</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="60">
         <v>550</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="M21" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="N21" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="O21" s="15"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="S21" s="15"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="15"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="L21" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="M21" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="N21" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="O21" s="62"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="S21" s="62"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="62"/>
     </row>
-    <row r="22" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A22" s="87"/>
+    <row r="22" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A22" s="48"/>
       <c r="B22" s="8">
         <v>17</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="E22" s="10"/>
-      <c r="F22" s="11">
+      <c r="F22" s="58">
         <v>3</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="59">
         <v>18</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="60">
         <v>490</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="60">
         <v>550</v>
       </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="L22" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="M22" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="N22" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="O22" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="R22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="S22" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="T22" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="U22" s="15"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="L22" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="M22" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="N22" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="O22" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="R22" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="S22" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="T22" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="U22" s="62"/>
     </row>
-    <row r="23" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A23" s="87"/>
+    <row r="23" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A23" s="48"/>
       <c r="B23" s="8">
         <v>18</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="11">
+      <c r="D23" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="58">
         <v>4</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="59">
         <v>27</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="60">
         <v>580</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="60">
         <v>640</v>
       </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="M23" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="N23" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="O23" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="15"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="L23" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="M23" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="N23" s="61" t="s">
+        <v>311</v>
+      </c>
+      <c r="O23" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="62"/>
     </row>
-    <row r="24" spans="1:21" ht="86.25" customHeight="1">
-      <c r="A24" s="87"/>
+    <row r="24" spans="1:21" ht="81">
+      <c r="A24" s="48"/>
       <c r="B24" s="8">
         <v>19</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="11">
+      <c r="D24" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="58">
         <v>3</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="59">
         <v>18</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="60">
         <v>490</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="60">
         <v>550</v>
       </c>
-      <c r="J24" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="K24" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="L24" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="M24" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="N24" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="O24" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="P24" s="14" t="s">
+      <c r="J24" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="K24" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="L24" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="15"/>
+      <c r="M24" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="N24" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="O24" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="P24" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="62"/>
     </row>
-    <row r="25" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A25" s="87"/>
+    <row r="25" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A25" s="48"/>
       <c r="B25" s="8">
         <v>20</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="E25" s="10"/>
-      <c r="F25" s="11">
+      <c r="F25" s="58">
         <v>3</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="59">
         <v>18</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="60">
         <v>490</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="60">
         <v>550</v>
       </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="M25" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="N25" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="O25" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="15"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="L25" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="N25" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="O25" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="62"/>
     </row>
     <row r="26" spans="1:21" ht="54">
-      <c r="A26" s="87"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="8">
         <v>21</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="E26" s="10"/>
-      <c r="F26" s="11">
+      <c r="F26" s="58">
         <v>3</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="59">
         <v>18</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="60">
         <v>490</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="60">
         <v>550</v>
       </c>
-      <c r="J26" s="14"/>
-      <c r="K26" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="M26" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="N26" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="O26" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="P26" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="15"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="M26" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="N26" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="O26" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="P26" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="62"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="62"/>
     </row>
-    <row r="27" spans="1:21" ht="30.75" customHeight="1">
-      <c r="A27" s="87"/>
+    <row r="27" spans="1:21" ht="27">
+      <c r="A27" s="48"/>
       <c r="B27" s="8">
         <v>22</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="E27" s="10"/>
-      <c r="F27" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="G27" s="12">
+      <c r="F27" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="G27" s="59">
         <v>18</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="60">
         <v>490</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="60">
         <v>550</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="M27" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="N27" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="O27" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="P27" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="S27" s="15"/>
-      <c r="T27" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="U27" s="15"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="M27" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="N27" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="O27" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="P27" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="S27" s="62"/>
+      <c r="T27" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="U27" s="62"/>
     </row>
-    <row r="28" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A28" s="87"/>
+    <row r="28" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A28" s="48"/>
       <c r="B28" s="8">
         <v>23</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="E28" s="10"/>
-      <c r="F28" s="11">
+      <c r="F28" s="58">
         <v>2</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="59">
         <v>16</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="60">
         <v>400</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="60">
         <v>440</v>
       </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="M28" s="15"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="S28" s="15"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="15" t="s">
-        <v>185</v>
+      <c r="J28" s="61"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="M28" s="62"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="S28" s="62"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="62" t="s">
+        <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A29" s="87" t="s">
-        <v>186</v>
+    <row r="29" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A29" s="48" t="s">
+        <v>167</v>
       </c>
       <c r="B29" s="8">
         <v>24</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="11">
+      <c r="C29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="58">
         <v>2</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="59">
         <v>16</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="60">
         <v>400</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="60">
         <v>440</v>
       </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="L29" s="14"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="S29" s="15"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="15"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="L29" s="61"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="S29" s="62"/>
+      <c r="T29" s="61"/>
+      <c r="U29" s="62"/>
     </row>
-    <row r="30" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A30" s="87"/>
+    <row r="30" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A30" s="48"/>
       <c r="B30" s="8">
         <v>25</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="G30" s="31">
+      <c r="C30" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="72">
         <v>18</v>
       </c>
-      <c r="H30" s="32">
+      <c r="H30" s="73">
         <v>490</v>
       </c>
-      <c r="I30" s="32">
+      <c r="I30" s="73">
         <v>550</v>
       </c>
-      <c r="J30" s="33"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="M30" s="15"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="T30" s="14"/>
-      <c r="U30" s="15"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="N30" s="61"/>
+      <c r="O30" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="T30" s="61"/>
+      <c r="U30" s="62"/>
     </row>
-    <row r="31" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A31" s="87"/>
+    <row r="31" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A31" s="48"/>
       <c r="B31" s="8">
         <v>26</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="11">
+      <c r="C31" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="58">
         <v>2</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="59">
         <v>16</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="60">
         <v>400</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="60">
         <v>440</v>
       </c>
-      <c r="J31" s="14"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="N31" s="14"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="U31" s="15"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="M31" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="N31" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="O31" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="S31" s="62"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="62"/>
     </row>
-    <row r="32" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A32" s="87"/>
+    <row r="32" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A32" s="45" t="s">
+        <v>176</v>
+      </c>
       <c r="B32" s="8">
         <v>27</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="11">
-        <v>2</v>
-      </c>
-      <c r="G32" s="12">
-        <v>16</v>
-      </c>
-      <c r="H32" s="13">
-        <v>400</v>
-      </c>
-      <c r="I32" s="13">
-        <v>440</v>
-      </c>
-      <c r="J32" s="14"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="O32" s="15"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="R32" s="14"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="15" t="s">
-        <v>199</v>
-      </c>
+      <c r="C32" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="74">
+        <v>4</v>
+      </c>
+      <c r="G32" s="75">
+        <v>27</v>
+      </c>
+      <c r="H32" s="76">
+        <v>580</v>
+      </c>
+      <c r="I32" s="76">
+        <v>640</v>
+      </c>
+      <c r="J32" s="77"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="M32" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="N32" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="O32" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="62"/>
+      <c r="R32" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="S32" s="62"/>
+      <c r="T32" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="U32" s="62"/>
     </row>
-    <row r="33" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A33" s="87"/>
+    <row r="33" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A33" s="46"/>
       <c r="B33" s="8">
         <v>28</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="11">
-        <v>2</v>
-      </c>
-      <c r="G33" s="12">
-        <v>16</v>
-      </c>
-      <c r="H33" s="13">
-        <v>400</v>
-      </c>
-      <c r="I33" s="13">
-        <v>440</v>
-      </c>
-      <c r="J33" s="14"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="M33" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="N33" s="14" t="s">
+      <c r="D33" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="74">
+        <v>3</v>
+      </c>
+      <c r="G33" s="75">
+        <v>18</v>
+      </c>
+      <c r="H33" s="76">
+        <v>490</v>
+      </c>
+      <c r="I33" s="76">
+        <v>550</v>
+      </c>
+      <c r="J33" s="77"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="N33" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="O33" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="S33" s="15"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="15"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="S33" s="62"/>
+      <c r="T33" s="61"/>
+      <c r="U33" s="62"/>
     </row>
-    <row r="34" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A34" s="84" t="s">
-        <v>205</v>
-      </c>
+    <row r="34" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A34" s="46"/>
       <c r="B34" s="8">
         <v>29</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="35">
+      <c r="D34" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E34" s="18"/>
+      <c r="F34" s="74">
         <v>4</v>
       </c>
-      <c r="G34" s="36">
+      <c r="G34" s="75">
         <v>27</v>
       </c>
-      <c r="H34" s="37">
+      <c r="H34" s="76">
         <v>580</v>
       </c>
-      <c r="I34" s="37">
+      <c r="I34" s="76">
         <v>640</v>
       </c>
-      <c r="J34" s="38"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="M34" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="N34" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="O34" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="S34" s="15"/>
-      <c r="T34" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="U34" s="15"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="L34" s="61"/>
+      <c r="M34" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="N34" s="61"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="61"/>
+      <c r="S34" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="T34" s="61"/>
+      <c r="U34" s="62"/>
     </row>
-    <row r="35" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A35" s="85"/>
+    <row r="35" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A35" s="46"/>
       <c r="B35" s="8">
         <v>30</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="E35" s="39"/>
-      <c r="F35" s="35">
-        <v>3</v>
-      </c>
-      <c r="G35" s="36">
-        <v>18</v>
-      </c>
-      <c r="H35" s="37">
-        <v>490</v>
-      </c>
-      <c r="I35" s="37">
-        <v>550</v>
-      </c>
-      <c r="J35" s="38"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="N35" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="O35" s="15"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="S35" s="15"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="15"/>
+      <c r="D35" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E35" s="19"/>
+      <c r="F35" s="74">
+        <v>4</v>
+      </c>
+      <c r="G35" s="75">
+        <v>27</v>
+      </c>
+      <c r="H35" s="76">
+        <v>580</v>
+      </c>
+      <c r="I35" s="76">
+        <v>640</v>
+      </c>
+      <c r="J35" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="K35" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="L35" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="M35" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="N35" s="61"/>
+      <c r="O35" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="R35" s="61" t="s">
+        <v>192</v>
+      </c>
+      <c r="S35" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="T35" s="61"/>
+      <c r="U35" s="62" t="s">
+        <v>194</v>
+      </c>
     </row>
-    <row r="36" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A36" s="85"/>
+    <row r="36" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A36" s="46"/>
       <c r="B36" s="8">
         <v>31</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="35">
-        <v>4</v>
-      </c>
-      <c r="G36" s="36">
-        <v>27</v>
-      </c>
-      <c r="H36" s="37">
-        <v>580</v>
-      </c>
-      <c r="I36" s="37">
-        <v>640</v>
-      </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="L36" s="14"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="O36" s="15"/>
-      <c r="P36" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="T36" s="14"/>
-      <c r="U36" s="15"/>
+      <c r="D36" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="G36" s="75">
+        <v>18</v>
+      </c>
+      <c r="H36" s="76">
+        <v>490</v>
+      </c>
+      <c r="I36" s="76">
+        <v>550</v>
+      </c>
+      <c r="J36" s="77"/>
+      <c r="K36" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="L36" s="61"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="62" t="s">
+        <v>313</v>
+      </c>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="S36" s="62"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="62"/>
     </row>
-    <row r="37" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A37" s="85"/>
+    <row r="37" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A37" s="46"/>
       <c r="B37" s="8">
         <v>32</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="35">
-        <v>4</v>
-      </c>
-      <c r="G37" s="36">
-        <v>27</v>
-      </c>
-      <c r="H37" s="37">
-        <v>580</v>
-      </c>
-      <c r="I37" s="37">
-        <v>640</v>
-      </c>
-      <c r="J37" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="K37" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="L37" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="M37" s="15"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="R37" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="S37" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="T37" s="14"/>
-      <c r="U37" s="15" t="s">
-        <v>223</v>
-      </c>
+      <c r="D37" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="74">
+        <v>3</v>
+      </c>
+      <c r="G37" s="75">
+        <v>18</v>
+      </c>
+      <c r="H37" s="76">
+        <v>490</v>
+      </c>
+      <c r="I37" s="76">
+        <v>550</v>
+      </c>
+      <c r="J37" s="77"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="N37" s="61"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="R37" s="61"/>
+      <c r="S37" s="62"/>
+      <c r="T37" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="U37" s="62"/>
     </row>
-    <row r="38" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A38" s="85"/>
+    <row r="38" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A38" s="46"/>
       <c r="B38" s="8">
         <v>33</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="G38" s="36">
-        <v>18</v>
-      </c>
-      <c r="H38" s="37">
-        <v>490</v>
-      </c>
-      <c r="I38" s="37">
-        <v>550</v>
-      </c>
-      <c r="J38" s="38"/>
-      <c r="K38" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="L38" s="14"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="S38" s="15"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="15"/>
+      <c r="D38" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="74">
+        <v>2</v>
+      </c>
+      <c r="G38" s="75">
+        <v>16</v>
+      </c>
+      <c r="H38" s="76">
+        <v>400</v>
+      </c>
+      <c r="I38" s="76">
+        <v>440</v>
+      </c>
+      <c r="J38" s="77" t="s">
+        <v>199</v>
+      </c>
+      <c r="K38" s="62"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="61"/>
+      <c r="S38" s="62"/>
+      <c r="T38" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="U38" s="62"/>
     </row>
-    <row r="39" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A39" s="85"/>
+    <row r="39" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A39" s="46"/>
       <c r="B39" s="8">
         <v>34</v>
       </c>
-      <c r="C39" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="E39" s="34"/>
-      <c r="F39" s="35">
-        <v>3</v>
-      </c>
-      <c r="G39" s="36">
+      <c r="C39" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="G39" s="75">
         <v>18</v>
       </c>
-      <c r="H39" s="37">
+      <c r="H39" s="76">
         <v>490</v>
       </c>
-      <c r="I39" s="37">
+      <c r="I39" s="76">
         <v>550</v>
       </c>
-      <c r="J39" s="38"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="N39" s="14"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="R39" s="14"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="U39" s="15"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="L39" s="61"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="66"/>
+      <c r="R39" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="S39" s="66"/>
+      <c r="T39" s="61"/>
+      <c r="U39" s="66"/>
     </row>
-    <row r="40" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A40" s="85"/>
+    <row r="40" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A40" s="46"/>
       <c r="B40" s="8">
         <v>35</v>
       </c>
-      <c r="C40" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="E40" s="34"/>
-      <c r="F40" s="35">
-        <v>2</v>
-      </c>
-      <c r="G40" s="36">
-        <v>16</v>
-      </c>
-      <c r="H40" s="37">
-        <v>400</v>
-      </c>
-      <c r="I40" s="37">
-        <v>440</v>
-      </c>
-      <c r="J40" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="K40" s="15"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="U40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="74">
+        <v>5</v>
+      </c>
+      <c r="G40" s="75">
+        <v>36</v>
+      </c>
+      <c r="H40" s="76">
+        <v>720</v>
+      </c>
+      <c r="I40" s="76">
+        <v>770</v>
+      </c>
+      <c r="J40" s="77"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="M40" s="62"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="S40" s="62"/>
+      <c r="T40" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="U40" s="62"/>
     </row>
-    <row r="41" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A41" s="85"/>
+    <row r="41" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A41" s="46"/>
       <c r="B41" s="8">
         <v>36</v>
       </c>
-      <c r="C41" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="E41" s="34"/>
-      <c r="F41" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="G41" s="36">
-        <v>18</v>
-      </c>
-      <c r="H41" s="37">
-        <v>490</v>
-      </c>
-      <c r="I41" s="37">
-        <v>550</v>
-      </c>
-      <c r="J41" s="38"/>
-      <c r="K41" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="L41" s="14"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="S41" s="22"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="22"/>
+      <c r="C41" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="74">
+        <v>4</v>
+      </c>
+      <c r="G41" s="75">
+        <v>27</v>
+      </c>
+      <c r="H41" s="76">
+        <v>610</v>
+      </c>
+      <c r="I41" s="76">
+        <v>670</v>
+      </c>
+      <c r="J41" s="77"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="M41" s="62"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="61"/>
+      <c r="S41" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="T41" s="61"/>
+      <c r="U41" s="62" t="s">
+        <v>194</v>
+      </c>
     </row>
-    <row r="42" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A42" s="85"/>
+    <row r="42" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A42" s="46"/>
       <c r="B42" s="8">
         <v>37</v>
       </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="E42" s="39"/>
-      <c r="F42" s="35">
-        <v>5</v>
-      </c>
-      <c r="G42" s="36">
+      <c r="C42" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H42" s="37">
-        <v>720</v>
-      </c>
-      <c r="I42" s="37">
-        <v>770</v>
-      </c>
-      <c r="J42" s="38"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="M42" s="15"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="S42" s="15"/>
-      <c r="T42" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="U42" s="15"/>
+      <c r="D42" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="E42" s="21"/>
+      <c r="F42" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="G42" s="75">
+        <v>16</v>
+      </c>
+      <c r="H42" s="76">
+        <v>400</v>
+      </c>
+      <c r="I42" s="76">
+        <v>440</v>
+      </c>
+      <c r="J42" s="77"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="M42" s="62"/>
+      <c r="N42" s="61"/>
+      <c r="O42" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="S42" s="62"/>
+      <c r="T42" s="61"/>
+      <c r="U42" s="62"/>
     </row>
-    <row r="43" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A43" s="85"/>
+    <row r="43" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A43" s="46"/>
       <c r="B43" s="8">
         <v>38</v>
       </c>
-      <c r="C43" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="D43" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="E43" s="39"/>
-      <c r="F43" s="35">
-        <v>4</v>
-      </c>
-      <c r="G43" s="36">
-        <v>27</v>
-      </c>
-      <c r="H43" s="37">
+      <c r="C43" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="79">
+        <v>3</v>
+      </c>
+      <c r="G43" s="80">
+        <v>23</v>
+      </c>
+      <c r="H43" s="81">
         <v>610</v>
       </c>
-      <c r="I43" s="37">
+      <c r="I43" s="81">
         <v>670</v>
       </c>
-      <c r="J43" s="38"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="M43" s="15"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="T43" s="14"/>
-      <c r="U43" s="15" t="s">
-        <v>223</v>
-      </c>
+      <c r="J43" s="61"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="M43" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="N43" s="61"/>
+      <c r="O43" s="66"/>
+      <c r="P43" s="61"/>
+      <c r="Q43" s="66"/>
+      <c r="R43" s="61"/>
+      <c r="S43" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="T43" s="61"/>
+      <c r="U43" s="66"/>
     </row>
-    <row r="44" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A44" s="85"/>
+    <row r="44" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A44" s="47"/>
       <c r="B44" s="8">
         <v>39</v>
       </c>
-      <c r="C44" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="E44" s="43"/>
-      <c r="F44" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="G44" s="36">
-        <v>16</v>
-      </c>
-      <c r="H44" s="37">
-        <v>400</v>
-      </c>
-      <c r="I44" s="37">
-        <v>440</v>
-      </c>
-      <c r="J44" s="38"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="M44" s="15"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="S44" s="15"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="15"/>
+      <c r="C44" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="F44" s="74">
+        <v>3</v>
+      </c>
+      <c r="G44" s="75">
+        <v>18</v>
+      </c>
+      <c r="H44" s="76">
+        <v>490</v>
+      </c>
+      <c r="I44" s="76">
+        <v>550</v>
+      </c>
+      <c r="J44" s="77"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="62"/>
+      <c r="N44" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="O44" s="62"/>
+      <c r="P44" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q44" s="62"/>
+      <c r="R44" s="61"/>
+      <c r="S44" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="T44" s="61"/>
+      <c r="U44" s="62"/>
     </row>
-    <row r="45" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A45" s="85"/>
+    <row r="45" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A45" s="45" t="s">
+        <v>211</v>
+      </c>
       <c r="B45" s="8">
         <v>40</v>
       </c>
-      <c r="C45" s="42" t="s">
-        <v>238</v>
+      <c r="C45" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="E45" s="10"/>
-      <c r="F45" s="44">
-        <v>3</v>
-      </c>
-      <c r="G45" s="45">
-        <v>23</v>
-      </c>
-      <c r="H45" s="46">
-        <v>610</v>
-      </c>
-      <c r="I45" s="46">
-        <v>670</v>
-      </c>
-      <c r="J45" s="14"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="M45" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="N45" s="14"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="T45" s="14"/>
-      <c r="U45" s="22"/>
+      <c r="F45" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="G45" s="59">
+        <v>18</v>
+      </c>
+      <c r="H45" s="60">
+        <v>490</v>
+      </c>
+      <c r="I45" s="60">
+        <v>550</v>
+      </c>
+      <c r="J45" s="61"/>
+      <c r="K45" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="L45" s="61"/>
+      <c r="M45" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="N45" s="61" t="s">
+        <v>315</v>
+      </c>
+      <c r="O45" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="R45" s="61"/>
+      <c r="S45" s="62"/>
+      <c r="T45" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="U45" s="62"/>
     </row>
-    <row r="46" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A46" s="86"/>
+    <row r="46" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A46" s="46"/>
       <c r="B46" s="8">
         <v>41</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="E46" s="34"/>
-      <c r="F46" s="35">
+      <c r="D46" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="E46" s="22"/>
+      <c r="F46" s="67">
         <v>3</v>
       </c>
-      <c r="G46" s="36">
-        <v>18</v>
-      </c>
-      <c r="H46" s="37">
-        <v>490</v>
-      </c>
-      <c r="I46" s="37">
-        <v>550</v>
-      </c>
-      <c r="J46" s="38"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="O46" s="15"/>
-      <c r="P46" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="T46" s="14"/>
-      <c r="U46" s="15"/>
+      <c r="G46" s="68">
+        <v>24</v>
+      </c>
+      <c r="H46" s="60">
+        <v>580</v>
+      </c>
+      <c r="I46" s="60">
+        <v>640</v>
+      </c>
+      <c r="J46" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="K46" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="L46" s="61"/>
+      <c r="M46" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="N46" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="O46" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="P46" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q46" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="R46" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="S46" s="64" t="s">
+        <v>221</v>
+      </c>
+      <c r="T46" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="U46" s="62"/>
     </row>
-    <row r="47" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A47" s="84" t="s">
-        <v>249</v>
-      </c>
+    <row r="47" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A47" s="47"/>
       <c r="B47" s="8">
         <v>42</v>
       </c>
-      <c r="C47" s="26" t="s">
-        <v>25</v>
-      </c>
+      <c r="C47" s="9"/>
       <c r="D47" s="10" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="E47" s="10"/>
-      <c r="F47" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="G47" s="12">
-        <v>18</v>
-      </c>
-      <c r="H47" s="13">
-        <v>490</v>
-      </c>
-      <c r="I47" s="13">
-        <v>550</v>
-      </c>
-      <c r="J47" s="14"/>
-      <c r="K47" s="15" t="s">
+      <c r="F47" s="58">
+        <v>4</v>
+      </c>
+      <c r="G47" s="59">
+        <v>27</v>
+      </c>
+      <c r="H47" s="60">
+        <v>610</v>
+      </c>
+      <c r="I47" s="60">
+        <v>670</v>
+      </c>
+      <c r="J47" s="61"/>
+      <c r="K47" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="L47" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="M47" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="N47" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="O47" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="P47" s="61"/>
+      <c r="Q47" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="R47" s="61"/>
+      <c r="S47" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="T47" s="61" t="s">
         <v>226</v>
       </c>
-      <c r="L47" s="14"/>
-      <c r="M47" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="N47" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="O47" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="R47" s="14"/>
-      <c r="S47" s="15"/>
-      <c r="T47" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="U47" s="15"/>
+      <c r="U47" s="62"/>
     </row>
-    <row r="48" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A48" s="85"/>
+    <row r="48" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A48" s="49" t="s">
+        <v>227</v>
+      </c>
       <c r="B48" s="8">
         <v>43</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="47" t="s">
-        <v>254</v>
-      </c>
-      <c r="E48" s="47"/>
-      <c r="F48" s="24">
+      <c r="D48" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="E48" s="22"/>
+      <c r="F48" s="67">
         <v>3</v>
       </c>
-      <c r="G48" s="25">
-        <v>24</v>
-      </c>
-      <c r="H48" s="13">
-        <v>580</v>
-      </c>
-      <c r="I48" s="13">
-        <v>640</v>
-      </c>
-      <c r="J48" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="K48" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="L48" s="14"/>
-      <c r="M48" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="N48" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="O48" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="P48" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q48" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="R48" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="S48" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="T48" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="U48" s="15"/>
+      <c r="G48" s="59">
+        <v>18</v>
+      </c>
+      <c r="H48" s="60">
+        <v>540</v>
+      </c>
+      <c r="I48" s="60">
+        <v>590</v>
+      </c>
+      <c r="J48" s="61"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="M48" s="66"/>
+      <c r="N48" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="O48" s="62"/>
+      <c r="P48" s="61" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q48" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="R48" s="61"/>
+      <c r="S48" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="T48" s="61"/>
+      <c r="U48" s="62"/>
     </row>
-    <row r="49" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A49" s="86"/>
+    <row r="49" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A49" s="49"/>
       <c r="B49" s="8">
         <v>44</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="11">
-        <v>4</v>
-      </c>
-      <c r="G49" s="12">
-        <v>27</v>
-      </c>
-      <c r="H49" s="13">
-        <v>610</v>
-      </c>
-      <c r="I49" s="13">
-        <v>670</v>
-      </c>
-      <c r="J49" s="14"/>
-      <c r="K49" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="L49" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="M49" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="N49" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="O49" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="R49" s="14"/>
-      <c r="S49" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="T49" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="U49" s="15"/>
+      <c r="C49" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="E49" s="22"/>
+      <c r="F49" s="67">
+        <v>3</v>
+      </c>
+      <c r="G49" s="59">
+        <v>18</v>
+      </c>
+      <c r="H49" s="60">
+        <v>540</v>
+      </c>
+      <c r="I49" s="60">
+        <v>590</v>
+      </c>
+      <c r="J49" s="61"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="N49" s="61"/>
+      <c r="O49" s="62"/>
+      <c r="P49" s="61"/>
+      <c r="Q49" s="62"/>
+      <c r="R49" s="61"/>
+      <c r="S49" s="62"/>
+      <c r="T49" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="U49" s="62"/>
     </row>
-    <row r="50" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A50" s="88" t="s">
-        <v>266</v>
-      </c>
+    <row r="50" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A50" s="49"/>
       <c r="B50" s="8">
         <v>45</v>
       </c>
-      <c r="C50" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="D50" s="47" t="s">
-        <v>267</v>
-      </c>
-      <c r="E50" s="47"/>
-      <c r="F50" s="24">
-        <v>3</v>
-      </c>
-      <c r="G50" s="12">
-        <v>18</v>
-      </c>
-      <c r="H50" s="13">
-        <v>540</v>
-      </c>
-      <c r="I50" s="13">
-        <v>590</v>
-      </c>
-      <c r="J50" s="14"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="M50" s="22"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q50" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="R50" s="14"/>
-      <c r="S50" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="T50" s="14"/>
-      <c r="U50" s="15"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="E50" s="24"/>
+      <c r="F50" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="G50" s="59">
+        <v>24</v>
+      </c>
+      <c r="H50" s="60">
+        <v>610</v>
+      </c>
+      <c r="I50" s="60">
+        <v>670</v>
+      </c>
+      <c r="J50" s="61"/>
+      <c r="K50" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="L50" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="M50" s="64" t="s">
+        <v>235</v>
+      </c>
+      <c r="N50" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="O50" s="64" t="s">
+        <v>236</v>
+      </c>
+      <c r="P50" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q50" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="R50" s="61" t="s">
+        <v>238</v>
+      </c>
+      <c r="S50" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="T50" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="U50" s="62"/>
     </row>
     <row r="51" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A51" s="88"/>
-      <c r="B51" s="8">
-        <v>46</v>
-      </c>
-      <c r="C51" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" s="47" t="s">
-        <v>270</v>
-      </c>
-      <c r="E51" s="47"/>
-      <c r="F51" s="24">
-        <v>3</v>
-      </c>
-      <c r="G51" s="12">
-        <v>18</v>
-      </c>
-      <c r="H51" s="13">
-        <v>540</v>
-      </c>
-      <c r="I51" s="13">
-        <v>590</v>
-      </c>
-      <c r="J51" s="14"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="N51" s="14"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="15"/>
-      <c r="T51" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="U51" s="15"/>
+      <c r="A51" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B51" s="25"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K51" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="L51" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="M51" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="N51" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="O51" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="P51" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q51" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="R51" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="S51" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="T51" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="U51" s="28" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="52" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A52" s="88"/>
+      <c r="A52" s="42" t="s">
+        <v>240</v>
+      </c>
       <c r="B52" s="8">
-        <v>47</v>
-      </c>
-      <c r="C52" s="48"/>
-      <c r="D52" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="E52" s="49"/>
-      <c r="F52" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="G52" s="12">
-        <v>24</v>
-      </c>
-      <c r="H52" s="13">
-        <v>610</v>
-      </c>
-      <c r="I52" s="13">
-        <v>670</v>
-      </c>
-      <c r="J52" s="14"/>
-      <c r="K52" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="L52" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="M52" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="N52" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="O52" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="P52" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q52" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="R52" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="S52" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="T52" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U52" s="15"/>
+        <v>46</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E52" s="14"/>
+      <c r="F52" s="90">
+        <v>2</v>
+      </c>
+      <c r="G52" s="91">
+        <v>16</v>
+      </c>
+      <c r="H52" s="89">
+        <v>450</v>
+      </c>
+      <c r="I52" s="89">
+        <v>530</v>
+      </c>
+      <c r="J52" s="82"/>
+      <c r="K52" s="84"/>
+      <c r="L52" s="82" t="s">
+        <v>242</v>
+      </c>
+      <c r="M52" s="84"/>
+      <c r="N52" s="82" t="s">
+        <v>243</v>
+      </c>
+      <c r="O52" s="84"/>
+      <c r="P52" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q52" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="R52" s="82"/>
+      <c r="S52" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="T52" s="82"/>
+      <c r="U52" s="84"/>
     </row>
     <row r="53" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A53" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="B53" s="50"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" s="80"/>
-      <c r="H53" s="80"/>
-      <c r="I53" s="80"/>
-      <c r="J53" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="K53" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="L53" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="M53" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="N53" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="O53" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="P53" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q53" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="R53" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="S53" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="T53" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="U53" s="53" t="s">
-        <v>17</v>
-      </c>
+      <c r="A53" s="42"/>
+      <c r="B53" s="8">
+        <v>47</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E53" s="14"/>
+      <c r="F53" s="87">
+        <v>3</v>
+      </c>
+      <c r="G53" s="88">
+        <v>24</v>
+      </c>
+      <c r="H53" s="89">
+        <v>650</v>
+      </c>
+      <c r="I53" s="89">
+        <v>770</v>
+      </c>
+      <c r="J53" s="86"/>
+      <c r="K53" s="83"/>
+      <c r="L53" s="82"/>
+      <c r="M53" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="N53" s="82"/>
+      <c r="O53" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="P53" s="82"/>
+      <c r="Q53" s="83"/>
+      <c r="R53" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="S53" s="83"/>
+      <c r="T53" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="U53" s="83"/>
     </row>
     <row r="54" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A54" s="81" t="s">
-        <v>279</v>
-      </c>
+      <c r="A54" s="42"/>
       <c r="B54" s="8">
         <v>48</v>
       </c>
-      <c r="C54" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="E54" s="23"/>
-      <c r="F54" s="54">
-        <v>2</v>
-      </c>
-      <c r="G54" s="55">
-        <v>16</v>
-      </c>
-      <c r="H54" s="46">
-        <v>450</v>
-      </c>
-      <c r="I54" s="46">
-        <v>530</v>
-      </c>
-      <c r="J54" s="14"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="M54" s="22"/>
-      <c r="N54" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="O54" s="22"/>
-      <c r="P54" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q54" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="R54" s="14"/>
-      <c r="S54" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="T54" s="14"/>
-      <c r="U54" s="22"/>
+      <c r="C54" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E54" s="16"/>
+      <c r="F54" s="87">
+        <v>3</v>
+      </c>
+      <c r="G54" s="88">
+        <v>24</v>
+      </c>
+      <c r="H54" s="89">
+        <v>650</v>
+      </c>
+      <c r="I54" s="89">
+        <v>770</v>
+      </c>
+      <c r="J54" s="86"/>
+      <c r="K54" s="83"/>
+      <c r="L54" s="82"/>
+      <c r="M54" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="N54" s="92"/>
+      <c r="O54" s="83"/>
+      <c r="P54" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q54" s="83"/>
+      <c r="R54" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="S54" s="83"/>
+      <c r="T54" s="82" t="s">
+        <v>247</v>
+      </c>
+      <c r="U54" s="83"/>
     </row>
     <row r="55" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A55" s="81"/>
+      <c r="A55" s="51" t="s">
+        <v>248</v>
+      </c>
       <c r="B55" s="8">
         <v>49</v>
       </c>
-      <c r="C55" s="56" t="s">
-        <v>238</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="E55" s="23"/>
-      <c r="F55" s="44">
-        <v>3</v>
-      </c>
-      <c r="G55" s="45">
-        <v>24</v>
-      </c>
-      <c r="H55" s="46">
-        <v>650</v>
-      </c>
-      <c r="I55" s="46">
-        <v>770</v>
-      </c>
-      <c r="J55" s="38"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="N55" s="14"/>
-      <c r="O55" s="29" t="s">
+      <c r="C55" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E55" s="16"/>
+      <c r="F55" s="87" t="s">
+        <v>317</v>
+      </c>
+      <c r="G55" s="88">
         <v>32</v>
       </c>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="S55" s="15"/>
-      <c r="T55" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="U55" s="15"/>
+      <c r="H55" s="89">
+        <v>1050</v>
+      </c>
+      <c r="I55" s="89">
+        <v>1250</v>
+      </c>
+      <c r="J55" s="86"/>
+      <c r="K55" s="83"/>
+      <c r="L55" s="82"/>
+      <c r="M55" s="83"/>
+      <c r="N55" s="82"/>
+      <c r="O55" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="P55" s="82"/>
+      <c r="Q55" s="83"/>
+      <c r="R55" s="82"/>
+      <c r="S55" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="T55" s="82"/>
+      <c r="U55" s="83"/>
     </row>
     <row r="56" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A56" s="81"/>
+      <c r="A56" s="51"/>
       <c r="B56" s="8">
         <v>50</v>
       </c>
-      <c r="C56" s="56" t="s">
-        <v>238</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="E56" s="28"/>
-      <c r="F56" s="44">
-        <v>3</v>
-      </c>
-      <c r="G56" s="45">
-        <v>24</v>
-      </c>
-      <c r="H56" s="46">
+      <c r="C56" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="E56" s="16"/>
+      <c r="F56" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="G56" s="91">
+        <v>20</v>
+      </c>
+      <c r="H56" s="89">
+        <v>550</v>
+      </c>
+      <c r="I56" s="89">
         <v>650</v>
       </c>
-      <c r="I56" s="46">
-        <v>770</v>
-      </c>
-      <c r="J56" s="38"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="N56" s="57"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q56" s="15"/>
-      <c r="R56" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="S56" s="15"/>
-      <c r="T56" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="U56" s="15"/>
+      <c r="J56" s="86"/>
+      <c r="K56" s="84"/>
+      <c r="L56" s="82"/>
+      <c r="M56" s="84"/>
+      <c r="N56" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="O56" s="84"/>
+      <c r="P56" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q56" s="84"/>
+      <c r="R56" s="82"/>
+      <c r="S56" s="84"/>
+      <c r="T56" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="U56" s="84"/>
     </row>
     <row r="57" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A57" s="77" t="s">
-        <v>287</v>
-      </c>
+      <c r="A57" s="51"/>
       <c r="B57" s="8">
         <v>51</v>
       </c>
-      <c r="C57" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="D57" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="E57" s="28"/>
-      <c r="F57" s="44" t="s">
-        <v>289</v>
-      </c>
-      <c r="G57" s="45">
+      <c r="C57" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="E57" s="16"/>
+      <c r="F57" s="87">
+        <v>4</v>
+      </c>
+      <c r="G57" s="88">
         <v>32</v>
       </c>
-      <c r="H57" s="46">
-        <v>1050</v>
-      </c>
-      <c r="I57" s="46">
-        <v>1250</v>
-      </c>
-      <c r="J57" s="38"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="P57" s="14"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="14"/>
-      <c r="S57" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="T57" s="14"/>
-      <c r="U57" s="15"/>
+      <c r="H57" s="89">
+        <v>850</v>
+      </c>
+      <c r="I57" s="89">
+        <v>1010</v>
+      </c>
+      <c r="J57" s="86"/>
+      <c r="K57" s="84"/>
+      <c r="L57" s="82"/>
+      <c r="M57" s="84"/>
+      <c r="N57" s="82" t="s">
+        <v>179</v>
+      </c>
+      <c r="O57" s="84"/>
+      <c r="P57" s="82"/>
+      <c r="Q57" s="93"/>
+      <c r="R57" s="82" t="s">
+        <v>318</v>
+      </c>
+      <c r="S57" s="84"/>
+      <c r="T57" s="82"/>
+      <c r="U57" s="84"/>
     </row>
     <row r="58" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A58" s="77"/>
+      <c r="A58" s="52"/>
       <c r="B58" s="8">
         <v>52</v>
       </c>
-      <c r="C58" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D58" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="E58" s="28"/>
-      <c r="F58" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="G58" s="55">
-        <v>20</v>
-      </c>
-      <c r="H58" s="46">
-        <v>550</v>
-      </c>
-      <c r="I58" s="46">
-        <v>650</v>
-      </c>
-      <c r="J58" s="38"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="O58" s="22"/>
-      <c r="P58" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="14"/>
-      <c r="S58" s="22"/>
-      <c r="T58" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="U58" s="22"/>
+      <c r="C58" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="E58" s="16"/>
+      <c r="F58" s="87">
+        <v>2</v>
+      </c>
+      <c r="G58" s="88">
+        <v>16</v>
+      </c>
+      <c r="H58" s="89">
+        <v>450</v>
+      </c>
+      <c r="I58" s="89">
+        <v>530</v>
+      </c>
+      <c r="J58" s="86"/>
+      <c r="K58" s="83"/>
+      <c r="L58" s="82"/>
+      <c r="M58" s="83"/>
+      <c r="N58" s="94"/>
+      <c r="O58" s="95"/>
+      <c r="P58" s="94"/>
+      <c r="Q58" s="83" t="s">
+        <v>253</v>
+      </c>
+      <c r="R58" s="82"/>
+      <c r="S58" s="83"/>
+      <c r="T58" s="82" t="s">
+        <v>258</v>
+      </c>
+      <c r="U58" s="83"/>
     </row>
     <row r="59" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A59" s="77"/>
-      <c r="B59" s="8">
+      <c r="A59" s="100" t="s">
+        <v>319</v>
+      </c>
+      <c r="B59" s="100"/>
+      <c r="C59" s="101"/>
+      <c r="D59" s="115"/>
+      <c r="E59" s="115"/>
+      <c r="F59" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="K59" s="116" t="s">
+        <v>7</v>
+      </c>
+      <c r="L59" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="N59" s="116" t="s">
+        <v>10</v>
+      </c>
+      <c r="O59" s="116" t="s">
+        <v>11</v>
+      </c>
+      <c r="P59" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q59" s="116" t="s">
+        <v>13</v>
+      </c>
+      <c r="R59" s="116" t="s">
+        <v>14</v>
+      </c>
+      <c r="S59" s="116" t="s">
+        <v>15</v>
+      </c>
+      <c r="T59" s="116" t="s">
+        <v>16</v>
+      </c>
+      <c r="U59" s="116" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A60" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="B60" s="102">
         <v>53</v>
       </c>
-      <c r="C59" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="D59" s="28" t="s">
+      <c r="C60" s="106" t="s">
+        <v>321</v>
+      </c>
+      <c r="D60" s="109" t="s">
+        <v>254</v>
+      </c>
+      <c r="E60" s="109"/>
+      <c r="F60" s="113">
+        <v>2</v>
+      </c>
+      <c r="G60" s="114">
+        <v>16</v>
+      </c>
+      <c r="H60" s="117">
+        <v>440</v>
+      </c>
+      <c r="I60" s="117">
+        <v>480</v>
+      </c>
+      <c r="J60" s="103"/>
+      <c r="K60" s="104"/>
+      <c r="L60" s="103" t="s">
+        <v>255</v>
+      </c>
+      <c r="M60" s="104"/>
+      <c r="N60" s="103"/>
+      <c r="O60" s="104" t="s">
+        <v>200</v>
+      </c>
+      <c r="P60" s="103"/>
+      <c r="Q60" s="104"/>
+      <c r="R60" s="103"/>
+      <c r="S60" s="104" t="s">
+        <v>256</v>
+      </c>
+      <c r="T60" s="103"/>
+      <c r="U60" s="104"/>
+    </row>
+    <row r="61" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A61" s="96"/>
+      <c r="B61" s="102">
+        <v>54</v>
+      </c>
+      <c r="C61" s="106" t="s">
+        <v>321</v>
+      </c>
+      <c r="D61" s="109" t="s">
+        <v>257</v>
+      </c>
+      <c r="E61" s="109"/>
+      <c r="F61" s="113">
+        <v>2</v>
+      </c>
+      <c r="G61" s="114">
+        <v>16</v>
+      </c>
+      <c r="H61" s="117">
+        <v>440</v>
+      </c>
+      <c r="I61" s="117">
+        <v>480</v>
+      </c>
+      <c r="J61" s="103"/>
+      <c r="K61" s="108"/>
+      <c r="L61" s="103" t="s">
+        <v>258</v>
+      </c>
+      <c r="M61" s="107" t="s">
+        <v>259</v>
+      </c>
+      <c r="N61" s="103" t="s">
+        <v>260</v>
+      </c>
+      <c r="O61" s="108" t="s">
+        <v>261</v>
+      </c>
+      <c r="P61" s="105" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q61" s="108" t="s">
+        <v>263</v>
+      </c>
+      <c r="R61" s="118" t="s">
+        <v>264</v>
+      </c>
+      <c r="S61" s="107" t="s">
+        <v>265</v>
+      </c>
+      <c r="T61" s="103" t="s">
+        <v>266</v>
+      </c>
+      <c r="U61" s="108"/>
+    </row>
+    <row r="62" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A62" s="96"/>
+      <c r="B62" s="102">
+        <v>55</v>
+      </c>
+      <c r="C62" s="106" t="s">
+        <v>321</v>
+      </c>
+      <c r="D62" s="109" t="s">
+        <v>267</v>
+      </c>
+      <c r="E62" s="109"/>
+      <c r="F62" s="113">
+        <v>2</v>
+      </c>
+      <c r="G62" s="114">
+        <v>16</v>
+      </c>
+      <c r="H62" s="117">
+        <v>440</v>
+      </c>
+      <c r="I62" s="117">
+        <v>480</v>
+      </c>
+      <c r="J62" s="103"/>
+      <c r="K62" s="104"/>
+      <c r="L62" s="103"/>
+      <c r="M62" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="N62" s="103"/>
+      <c r="O62" s="108"/>
+      <c r="P62" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q62" s="104"/>
+      <c r="R62" s="103"/>
+      <c r="S62" s="104" t="s">
+        <v>268</v>
+      </c>
+      <c r="T62" s="103"/>
+      <c r="U62" s="104"/>
+    </row>
+    <row r="63" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A63" s="96"/>
+      <c r="B63" s="102">
+        <v>56</v>
+      </c>
+      <c r="C63" s="106" t="s">
+        <v>321</v>
+      </c>
+      <c r="D63" s="109" t="s">
+        <v>269</v>
+      </c>
+      <c r="E63" s="109"/>
+      <c r="F63" s="113">
+        <v>2</v>
+      </c>
+      <c r="G63" s="114">
+        <v>16</v>
+      </c>
+      <c r="H63" s="117">
+        <v>440</v>
+      </c>
+      <c r="I63" s="117">
+        <v>480</v>
+      </c>
+      <c r="J63" s="103"/>
+      <c r="K63" s="104"/>
+      <c r="L63" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="M63" s="104"/>
+      <c r="N63" s="103"/>
+      <c r="O63" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="P63" s="103"/>
+      <c r="Q63" s="104"/>
+      <c r="R63" s="103" t="s">
+        <v>270</v>
+      </c>
+      <c r="S63" s="104"/>
+      <c r="T63" s="103"/>
+      <c r="U63" s="104" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A64" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="102">
+        <v>57</v>
+      </c>
+      <c r="C64" s="106" t="s">
+        <v>321</v>
+      </c>
+      <c r="D64" s="109" t="s">
+        <v>272</v>
+      </c>
+      <c r="E64" s="109"/>
+      <c r="F64" s="113">
+        <v>2</v>
+      </c>
+      <c r="G64" s="114">
+        <v>16</v>
+      </c>
+      <c r="H64" s="117">
+        <v>440</v>
+      </c>
+      <c r="I64" s="117">
+        <v>480</v>
+      </c>
+      <c r="J64" s="103"/>
+      <c r="K64" s="104"/>
+      <c r="L64" s="103" t="s">
+        <v>124</v>
+      </c>
+      <c r="M64" s="104"/>
+      <c r="N64" s="103"/>
+      <c r="O64" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="P64" s="103"/>
+      <c r="Q64" s="104"/>
+      <c r="R64" s="103" t="s">
+        <v>273</v>
+      </c>
+      <c r="S64" s="104"/>
+      <c r="T64" s="103"/>
+      <c r="U64" s="104"/>
+    </row>
+    <row r="65" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A65" s="55"/>
+      <c r="B65" s="102">
+        <v>58</v>
+      </c>
+      <c r="C65" s="106" t="s">
+        <v>321</v>
+      </c>
+      <c r="D65" s="109" t="s">
+        <v>274</v>
+      </c>
+      <c r="E65" s="109"/>
+      <c r="F65" s="113">
+        <v>2</v>
+      </c>
+      <c r="G65" s="114">
+        <v>16</v>
+      </c>
+      <c r="H65" s="117">
+        <v>440</v>
+      </c>
+      <c r="I65" s="117">
+        <v>480</v>
+      </c>
+      <c r="J65" s="103"/>
+      <c r="K65" s="104"/>
+      <c r="L65" s="103"/>
+      <c r="M65" s="104" t="s">
+        <v>263</v>
+      </c>
+      <c r="N65" s="103"/>
+      <c r="O65" s="104" t="s">
+        <v>52</v>
+      </c>
+      <c r="P65" s="103"/>
+      <c r="Q65" s="104"/>
+      <c r="R65" s="103" t="s">
+        <v>275</v>
+      </c>
+      <c r="S65" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="T65" s="103"/>
+      <c r="U65" s="104"/>
+    </row>
+    <row r="66" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A66" s="55"/>
+      <c r="B66" s="102">
+        <v>59</v>
+      </c>
+      <c r="C66" s="106" t="s">
+        <v>321</v>
+      </c>
+      <c r="D66" s="109" t="s">
+        <v>276</v>
+      </c>
+      <c r="E66" s="109"/>
+      <c r="F66" s="113">
+        <v>3</v>
+      </c>
+      <c r="G66" s="114">
+        <v>21</v>
+      </c>
+      <c r="H66" s="117">
+        <v>550</v>
+      </c>
+      <c r="I66" s="117">
+        <v>610</v>
+      </c>
+      <c r="J66" s="105" t="s">
+        <v>277</v>
+      </c>
+      <c r="K66" s="119"/>
+      <c r="L66" s="105" t="s">
+        <v>278</v>
+      </c>
+      <c r="M66" s="107" t="s">
+        <v>31</v>
+      </c>
+      <c r="N66" s="103"/>
+      <c r="O66" s="108" t="s">
+        <v>279</v>
+      </c>
+      <c r="P66" s="105" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q66" s="108" t="s">
+        <v>281</v>
+      </c>
+      <c r="R66" s="105" t="s">
+        <v>322</v>
+      </c>
+      <c r="S66" s="107" t="s">
+        <v>282</v>
+      </c>
+      <c r="T66" s="105" t="s">
+        <v>283</v>
+      </c>
+      <c r="U66" s="108" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A67" s="55"/>
+      <c r="B67" s="102">
+        <v>60</v>
+      </c>
+      <c r="C67" s="106" t="s">
+        <v>321</v>
+      </c>
+      <c r="D67" s="109" t="s">
+        <v>285</v>
+      </c>
+      <c r="E67" s="109"/>
+      <c r="F67" s="113">
+        <v>2</v>
+      </c>
+      <c r="G67" s="114">
+        <v>16</v>
+      </c>
+      <c r="H67" s="117">
+        <v>440</v>
+      </c>
+      <c r="I67" s="117">
+        <v>480</v>
+      </c>
+      <c r="J67" s="103"/>
+      <c r="K67" s="104"/>
+      <c r="L67" s="103"/>
+      <c r="M67" s="104"/>
+      <c r="N67" s="103" t="s">
+        <v>261</v>
+      </c>
+      <c r="O67" s="104"/>
+      <c r="P67" s="103"/>
+      <c r="Q67" s="104" t="s">
+        <v>286</v>
+      </c>
+      <c r="R67" s="103"/>
+      <c r="S67" s="104"/>
+      <c r="T67" s="103" t="s">
+        <v>169</v>
+      </c>
+      <c r="U67" s="104"/>
+    </row>
+    <row r="68" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A68" s="55"/>
+      <c r="B68" s="102">
+        <v>61</v>
+      </c>
+      <c r="C68" s="106" t="s">
+        <v>321</v>
+      </c>
+      <c r="D68" s="109" t="s">
+        <v>287</v>
+      </c>
+      <c r="E68" s="109"/>
+      <c r="F68" s="113">
+        <v>2</v>
+      </c>
+      <c r="G68" s="114">
+        <v>16</v>
+      </c>
+      <c r="H68" s="120">
+        <v>440</v>
+      </c>
+      <c r="I68" s="120">
+        <v>480</v>
+      </c>
+      <c r="J68" s="103"/>
+      <c r="K68" s="104"/>
+      <c r="L68" s="103" t="s">
+        <v>169</v>
+      </c>
+      <c r="M68" s="104"/>
+      <c r="N68" s="103"/>
+      <c r="O68" s="108" t="s">
+        <v>261</v>
+      </c>
+      <c r="P68" s="103"/>
+      <c r="Q68" s="104"/>
+      <c r="R68" s="103" t="s">
+        <v>273</v>
+      </c>
+      <c r="S68" s="104" t="s">
+        <v>288</v>
+      </c>
+      <c r="T68" s="103"/>
+      <c r="U68" s="104"/>
+    </row>
+    <row r="69" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A69" s="55"/>
+      <c r="B69" s="102">
+        <v>62</v>
+      </c>
+      <c r="C69" s="106" t="s">
+        <v>321</v>
+      </c>
+      <c r="D69" s="121" t="s">
+        <v>323</v>
+      </c>
+      <c r="E69" s="109"/>
+      <c r="F69" s="97" t="s">
+        <v>314</v>
+      </c>
+      <c r="G69" s="98">
+        <v>16</v>
+      </c>
+      <c r="H69" s="120">
+        <v>440</v>
+      </c>
+      <c r="I69" s="120">
+        <v>480</v>
+      </c>
+      <c r="J69" s="122"/>
+      <c r="K69" s="123"/>
+      <c r="L69" s="124"/>
+      <c r="M69" s="125"/>
+      <c r="N69" s="126"/>
+      <c r="O69" s="127"/>
+      <c r="P69" s="128"/>
+      <c r="Q69" s="125" t="s">
+        <v>324</v>
+      </c>
+      <c r="R69" s="128"/>
+      <c r="S69" s="127"/>
+      <c r="T69" s="128"/>
+      <c r="U69" s="127"/>
+    </row>
+    <row r="70" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A70" s="55"/>
+      <c r="B70" s="102">
+        <v>63</v>
+      </c>
+      <c r="C70" s="106" t="s">
+        <v>321</v>
+      </c>
+      <c r="D70" s="121" t="s">
+        <v>325</v>
+      </c>
+      <c r="E70" s="109"/>
+      <c r="F70" s="97" t="s">
+        <v>314</v>
+      </c>
+      <c r="G70" s="98">
+        <v>16</v>
+      </c>
+      <c r="H70" s="120">
+        <v>440</v>
+      </c>
+      <c r="I70" s="120">
+        <v>480</v>
+      </c>
+      <c r="J70" s="122"/>
+      <c r="K70" s="129"/>
+      <c r="L70" s="126"/>
+      <c r="M70" s="125"/>
+      <c r="N70" s="124" t="s">
+        <v>326</v>
+      </c>
+      <c r="O70" s="125"/>
+      <c r="P70" s="128"/>
+      <c r="Q70" s="127"/>
+      <c r="R70" s="124" t="s">
+        <v>327</v>
+      </c>
+      <c r="S70" s="127"/>
+      <c r="T70" s="126" t="s">
+        <v>328</v>
+      </c>
+      <c r="U70" s="127"/>
+    </row>
+    <row r="71" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A71" s="55"/>
+      <c r="B71" s="102">
+        <v>64</v>
+      </c>
+      <c r="C71" s="106" t="s">
+        <v>321</v>
+      </c>
+      <c r="D71" s="121" t="s">
+        <v>329</v>
+      </c>
+      <c r="E71" s="130"/>
+      <c r="F71" s="97" t="s">
+        <v>314</v>
+      </c>
+      <c r="G71" s="98">
+        <v>16</v>
+      </c>
+      <c r="H71" s="120">
+        <v>440</v>
+      </c>
+      <c r="I71" s="120">
+        <v>480</v>
+      </c>
+      <c r="J71" s="122"/>
+      <c r="K71" s="123"/>
+      <c r="L71" s="128"/>
+      <c r="M71" s="131"/>
+      <c r="N71" s="126"/>
+      <c r="O71" s="125" t="s">
+        <v>200</v>
+      </c>
+      <c r="P71" s="126"/>
+      <c r="Q71" s="131"/>
+      <c r="R71" s="126" t="s">
+        <v>330</v>
+      </c>
+      <c r="S71" s="125" t="s">
+        <v>331</v>
+      </c>
+      <c r="T71" s="128"/>
+      <c r="U71" s="127"/>
+    </row>
+    <row r="72" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A72" s="55" t="s">
+        <v>332</v>
+      </c>
+      <c r="B72" s="102">
+        <v>65</v>
+      </c>
+      <c r="C72" s="106" t="s">
+        <v>321</v>
+      </c>
+      <c r="D72" s="109" t="s">
+        <v>289</v>
+      </c>
+      <c r="E72" s="109"/>
+      <c r="F72" s="113">
+        <v>2</v>
+      </c>
+      <c r="G72" s="114">
+        <v>16</v>
+      </c>
+      <c r="H72" s="117">
+        <v>440</v>
+      </c>
+      <c r="I72" s="117">
+        <v>480</v>
+      </c>
+      <c r="J72" s="103"/>
+      <c r="K72" s="104"/>
+      <c r="L72" s="103"/>
+      <c r="M72" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="N72" s="103"/>
+      <c r="O72" s="104"/>
+      <c r="P72" s="103" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q72" s="104"/>
+      <c r="R72" s="103"/>
+      <c r="S72" s="104"/>
+      <c r="T72" s="103" t="s">
+        <v>169</v>
+      </c>
+      <c r="U72" s="104"/>
+    </row>
+    <row r="73" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A73" s="55"/>
+      <c r="B73" s="102">
+        <v>66</v>
+      </c>
+      <c r="C73" s="106" t="s">
+        <v>321</v>
+      </c>
+      <c r="D73" s="109" t="s">
+        <v>333</v>
+      </c>
+      <c r="E73" s="109"/>
+      <c r="F73" s="113">
+        <v>2</v>
+      </c>
+      <c r="G73" s="114">
+        <v>16</v>
+      </c>
+      <c r="H73" s="117">
+        <v>440</v>
+      </c>
+      <c r="I73" s="117">
+        <v>480</v>
+      </c>
+      <c r="J73" s="103"/>
+      <c r="K73" s="104"/>
+      <c r="L73" s="103"/>
+      <c r="M73" s="104" t="s">
+        <v>290</v>
+      </c>
+      <c r="N73" s="103"/>
+      <c r="O73" s="104" t="s">
+        <v>200</v>
+      </c>
+      <c r="P73" s="103"/>
+      <c r="Q73" s="104"/>
+      <c r="R73" s="103"/>
+      <c r="S73" s="104" t="s">
+        <v>256</v>
+      </c>
+      <c r="T73" s="103"/>
+      <c r="U73" s="104"/>
+    </row>
+    <row r="74" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A74" s="55"/>
+      <c r="B74" s="102">
+        <v>67</v>
+      </c>
+      <c r="C74" s="106" t="s">
+        <v>321</v>
+      </c>
+      <c r="D74" s="109" t="s">
+        <v>291</v>
+      </c>
+      <c r="E74" s="109"/>
+      <c r="F74" s="113">
+        <v>2</v>
+      </c>
+      <c r="G74" s="114">
+        <v>16</v>
+      </c>
+      <c r="H74" s="117">
+        <v>440</v>
+      </c>
+      <c r="I74" s="117">
+        <v>480</v>
+      </c>
+      <c r="J74" s="103"/>
+      <c r="K74" s="104"/>
+      <c r="L74" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="M74" s="104"/>
+      <c r="N74" s="103" t="s">
+        <v>261</v>
+      </c>
+      <c r="O74" s="104"/>
+      <c r="P74" s="103"/>
+      <c r="Q74" s="104"/>
+      <c r="R74" s="103" t="s">
+        <v>273</v>
+      </c>
+      <c r="S74" s="104"/>
+      <c r="T74" s="103"/>
+      <c r="U74" s="104" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A75" s="55" t="s">
+        <v>334</v>
+      </c>
+      <c r="B75" s="102">
+        <v>68</v>
+      </c>
+      <c r="C75" s="106" t="s">
+        <v>321</v>
+      </c>
+      <c r="D75" s="109" t="s">
+        <v>293</v>
+      </c>
+      <c r="E75" s="109"/>
+      <c r="F75" s="113">
+        <v>2</v>
+      </c>
+      <c r="G75" s="114">
+        <v>16</v>
+      </c>
+      <c r="H75" s="117">
+        <v>440</v>
+      </c>
+      <c r="I75" s="117">
+        <v>480</v>
+      </c>
+      <c r="J75" s="103"/>
+      <c r="K75" s="104"/>
+      <c r="L75" s="103"/>
+      <c r="M75" s="104"/>
+      <c r="N75" s="103" t="s">
+        <v>52</v>
+      </c>
+      <c r="O75" s="104"/>
+      <c r="P75" s="103"/>
+      <c r="Q75" s="104"/>
+      <c r="R75" s="103" t="s">
+        <v>273</v>
+      </c>
+      <c r="S75" s="104" t="s">
         <v>294</v>
       </c>
-      <c r="E59" s="28"/>
-      <c r="F59" s="44">
-        <v>4</v>
-      </c>
-      <c r="G59" s="45">
-        <v>32</v>
-      </c>
-      <c r="H59" s="46">
-        <v>850</v>
-      </c>
-      <c r="I59" s="46">
-        <v>1010</v>
-      </c>
-      <c r="J59" s="38"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="O59" s="22"/>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="58"/>
-      <c r="R59" s="14" t="s">
+      <c r="T75" s="103"/>
+      <c r="U75" s="104"/>
+    </row>
+    <row r="76" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A76" s="55"/>
+      <c r="B76" s="102">
+        <v>69</v>
+      </c>
+      <c r="C76" s="106" t="s">
+        <v>321</v>
+      </c>
+      <c r="D76" s="109" t="s">
         <v>295</v>
       </c>
-      <c r="S59" s="22"/>
-      <c r="T59" s="14"/>
-      <c r="U59" s="22"/>
+      <c r="E76" s="109"/>
+      <c r="F76" s="113">
+        <v>2</v>
+      </c>
+      <c r="G76" s="114">
+        <v>16</v>
+      </c>
+      <c r="H76" s="117">
+        <v>440</v>
+      </c>
+      <c r="I76" s="117">
+        <v>480</v>
+      </c>
+      <c r="J76" s="103"/>
+      <c r="K76" s="104"/>
+      <c r="L76" s="103"/>
+      <c r="M76" s="104" t="s">
+        <v>296</v>
+      </c>
+      <c r="N76" s="103"/>
+      <c r="O76" s="104" t="s">
+        <v>165</v>
+      </c>
+      <c r="P76" s="103"/>
+      <c r="Q76" s="104"/>
+      <c r="R76" s="103"/>
+      <c r="S76" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="T76" s="103"/>
+      <c r="U76" s="104"/>
     </row>
-    <row r="60" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A60" s="78"/>
-      <c r="B60" s="8">
-        <v>54</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D60" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="E60" s="28"/>
-      <c r="F60" s="44">
+    <row r="77" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A77" s="55"/>
+      <c r="B77" s="102">
+        <v>70</v>
+      </c>
+      <c r="C77" s="106" t="s">
+        <v>321</v>
+      </c>
+      <c r="D77" s="121" t="s">
+        <v>335</v>
+      </c>
+      <c r="E77" s="130"/>
+      <c r="F77" s="97" t="s">
+        <v>314</v>
+      </c>
+      <c r="G77" s="98">
+        <v>16</v>
+      </c>
+      <c r="H77" s="117">
+        <v>440</v>
+      </c>
+      <c r="I77" s="117">
+        <v>480</v>
+      </c>
+      <c r="J77" s="122"/>
+      <c r="K77" s="123"/>
+      <c r="L77" s="128"/>
+      <c r="M77" s="131"/>
+      <c r="N77" s="126" t="s">
+        <v>52</v>
+      </c>
+      <c r="O77" s="125"/>
+      <c r="P77" s="126" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q77" s="131"/>
+      <c r="R77" s="128"/>
+      <c r="S77" s="131" t="s">
+        <v>337</v>
+      </c>
+      <c r="T77" s="126"/>
+      <c r="U77" s="127"/>
+    </row>
+    <row r="78" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A78" s="55"/>
+      <c r="B78" s="102">
+        <v>71</v>
+      </c>
+      <c r="C78" s="106" t="s">
+        <v>321</v>
+      </c>
+      <c r="D78" s="121" t="s">
+        <v>338</v>
+      </c>
+      <c r="E78" s="130"/>
+      <c r="F78" s="97" t="s">
+        <v>314</v>
+      </c>
+      <c r="G78" s="98">
+        <v>16</v>
+      </c>
+      <c r="H78" s="117">
+        <v>440</v>
+      </c>
+      <c r="I78" s="117">
+        <v>480</v>
+      </c>
+      <c r="J78" s="122"/>
+      <c r="K78" s="123"/>
+      <c r="L78" s="128"/>
+      <c r="M78" s="131"/>
+      <c r="N78" s="126"/>
+      <c r="O78" s="131" t="s">
+        <v>339</v>
+      </c>
+      <c r="P78" s="128"/>
+      <c r="Q78" s="127"/>
+      <c r="R78" s="128"/>
+      <c r="S78" s="131" t="s">
+        <v>340</v>
+      </c>
+      <c r="T78" s="124" t="s">
+        <v>341</v>
+      </c>
+      <c r="U78" s="127"/>
+    </row>
+    <row r="79" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A79" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="B79" s="102">
+        <v>72</v>
+      </c>
+      <c r="C79" s="106" t="s">
+        <v>321</v>
+      </c>
+      <c r="D79" s="112" t="s">
+        <v>297</v>
+      </c>
+      <c r="E79" s="112"/>
+      <c r="F79" s="111">
         <v>2</v>
       </c>
-      <c r="G60" s="45">
+      <c r="G79" s="132">
         <v>16</v>
       </c>
-      <c r="H60" s="46">
-        <v>450</v>
-      </c>
-      <c r="I60" s="46">
-        <v>530</v>
-      </c>
-      <c r="J60" s="38"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="59"/>
-      <c r="O60" s="60"/>
-      <c r="P60" s="59"/>
-      <c r="Q60" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="R60" s="14"/>
-      <c r="S60" s="15"/>
-      <c r="T60" s="14" t="s">
+      <c r="H79" s="110">
+        <v>440</v>
+      </c>
+      <c r="I79" s="117">
+        <v>480</v>
+      </c>
+      <c r="J79" s="103"/>
+      <c r="K79" s="104"/>
+      <c r="L79" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="M79" s="108"/>
+      <c r="N79" s="103" t="s">
         <v>298</v>
       </c>
-      <c r="U60" s="15"/>
+      <c r="O79" s="108" t="s">
+        <v>299</v>
+      </c>
+      <c r="P79" s="103" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q79" s="104" t="s">
+        <v>263</v>
+      </c>
+      <c r="R79" s="105" t="s">
+        <v>300</v>
+      </c>
+      <c r="S79" s="104"/>
+      <c r="T79" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="U79" s="104"/>
     </row>
-    <row r="61" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A61" s="61" t="s">
-        <v>299</v>
-      </c>
-      <c r="B61" s="50"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="52"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="79" t="s">
+    <row r="80" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A80" s="96"/>
+      <c r="B80" s="102">
+        <v>73</v>
+      </c>
+      <c r="C80" s="106" t="s">
+        <v>321</v>
+      </c>
+      <c r="D80" s="112" t="s">
+        <v>301</v>
+      </c>
+      <c r="E80" s="112"/>
+      <c r="F80" s="111">
+        <v>2</v>
+      </c>
+      <c r="G80" s="132">
+        <v>21</v>
+      </c>
+      <c r="H80" s="110">
+        <v>550</v>
+      </c>
+      <c r="I80" s="110">
+        <v>610</v>
+      </c>
+      <c r="J80" s="103"/>
+      <c r="K80" s="104"/>
+      <c r="L80" s="103" t="s">
+        <v>183</v>
+      </c>
+      <c r="M80" s="104"/>
+      <c r="N80" s="103"/>
+      <c r="O80" s="108" t="s">
+        <v>133</v>
+      </c>
+      <c r="P80" s="103"/>
+      <c r="Q80" s="108"/>
+      <c r="R80" s="103" t="s">
+        <v>154</v>
+      </c>
+      <c r="S80" s="108"/>
+      <c r="T80" s="103"/>
+      <c r="U80" s="108"/>
+    </row>
+    <row r="81" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A81" s="133" t="s">
+        <v>343</v>
+      </c>
+      <c r="B81" s="102">
+        <v>74</v>
+      </c>
+      <c r="C81" s="106" t="s">
+        <v>321</v>
+      </c>
+      <c r="D81" s="121" t="s">
+        <v>344</v>
+      </c>
+      <c r="E81" s="130"/>
+      <c r="F81" s="97" t="s">
+        <v>314</v>
+      </c>
+      <c r="G81" s="98">
+        <v>16</v>
+      </c>
+      <c r="H81" s="117">
+        <v>440</v>
+      </c>
+      <c r="I81" s="117">
+        <v>480</v>
+      </c>
+      <c r="J81" s="122"/>
+      <c r="K81" s="123"/>
+      <c r="L81" s="128"/>
+      <c r="M81" s="131"/>
+      <c r="N81" s="124" t="s">
+        <v>345</v>
+      </c>
+      <c r="O81" s="125" t="s">
+        <v>346</v>
+      </c>
+      <c r="P81" s="128"/>
+      <c r="Q81" s="127"/>
+      <c r="R81" s="124" t="s">
+        <v>347</v>
+      </c>
+      <c r="S81" s="127"/>
+      <c r="T81" s="126"/>
+      <c r="U81" s="131"/>
+    </row>
+    <row r="82" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A82" s="134" t="s">
+        <v>348</v>
+      </c>
+      <c r="B82" s="100"/>
+      <c r="C82" s="101"/>
+      <c r="D82" s="115"/>
+      <c r="E82" s="115"/>
+      <c r="F82" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G61" s="80"/>
-      <c r="H61" s="80"/>
-      <c r="I61" s="80"/>
-      <c r="J61" s="53" t="s">
+      <c r="G82" s="56"/>
+      <c r="H82" s="56"/>
+      <c r="I82" s="56"/>
+      <c r="J82" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="K61" s="53" t="s">
+      <c r="K82" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="L61" s="53" t="s">
+      <c r="L82" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="M61" s="53" t="s">
+      <c r="M82" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="N61" s="53" t="s">
+      <c r="N82" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="O61" s="53" t="s">
+      <c r="O82" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="P61" s="53" t="s">
+      <c r="P82" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="Q61" s="53" t="s">
+      <c r="Q82" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="R61" s="53" t="s">
+      <c r="R82" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="S61" s="53" t="s">
+      <c r="S82" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="T61" s="53" t="s">
+      <c r="T82" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="U61" s="53" t="s">
+      <c r="U82" s="116" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A62" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="B62" s="8">
-        <v>55</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="D62" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="E62" s="23"/>
-      <c r="F62" s="44">
-        <v>2</v>
-      </c>
-      <c r="G62" s="45">
+    <row r="83" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A83" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" s="102">
+        <v>75</v>
+      </c>
+      <c r="C83" s="53" t="s">
+        <v>323</v>
+      </c>
+      <c r="D83" s="53"/>
+      <c r="E83" s="109"/>
+      <c r="F83" s="97" t="s">
+        <v>314</v>
+      </c>
+      <c r="G83" s="98">
         <v>16</v>
       </c>
-      <c r="H62" s="62">
-        <v>440</v>
-      </c>
-      <c r="I62" s="62">
-        <v>480</v>
-      </c>
-      <c r="J62" s="14"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="M62" s="15"/>
-      <c r="N62" s="14"/>
-      <c r="O62" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="P62" s="14"/>
-      <c r="Q62" s="15"/>
-      <c r="R62" s="14"/>
-      <c r="S62" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="T62" s="14"/>
-      <c r="U62" s="15"/>
+      <c r="H83" s="98">
+        <v>120</v>
+      </c>
+      <c r="I83" s="99">
+        <v>120</v>
+      </c>
+      <c r="J83" s="122"/>
+      <c r="K83" s="123"/>
+      <c r="L83" s="124" t="s">
+        <v>349</v>
+      </c>
+      <c r="M83" s="125" t="s">
+        <v>350</v>
+      </c>
+      <c r="N83" s="126"/>
+      <c r="O83" s="127"/>
+      <c r="P83" s="128"/>
+      <c r="Q83" s="125"/>
+      <c r="R83" s="128"/>
+      <c r="S83" s="127"/>
+      <c r="T83" s="128"/>
+      <c r="U83" s="127"/>
     </row>
-    <row r="63" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A63" s="76"/>
-      <c r="B63" s="8">
-        <v>56</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="D63" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="E63" s="23"/>
-      <c r="F63" s="44">
-        <v>2</v>
-      </c>
-      <c r="G63" s="45">
+    <row r="84" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A84" s="55"/>
+      <c r="B84" s="102">
+        <v>76</v>
+      </c>
+      <c r="C84" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="D84" s="54"/>
+      <c r="E84" s="109"/>
+      <c r="F84" s="97" t="s">
+        <v>314</v>
+      </c>
+      <c r="G84" s="98">
         <v>16</v>
       </c>
-      <c r="H63" s="62">
-        <v>440</v>
-      </c>
-      <c r="I63" s="62">
-        <v>480</v>
-      </c>
-      <c r="J63" s="14"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="M63" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="N63" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="O63" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="P63" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q63" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="R63" s="63" t="s">
-        <v>312</v>
-      </c>
-      <c r="S63" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="T63" s="14" t="s">
+      <c r="H84" s="98">
+        <v>120</v>
+      </c>
+      <c r="I84" s="99">
+        <v>120</v>
+      </c>
+      <c r="J84" s="122"/>
+      <c r="K84" s="129"/>
+      <c r="L84" s="126" t="s">
+        <v>351</v>
+      </c>
+      <c r="M84" s="125" t="s">
+        <v>352</v>
+      </c>
+      <c r="N84" s="124"/>
+      <c r="O84" s="125"/>
+      <c r="P84" s="128"/>
+      <c r="Q84" s="127"/>
+      <c r="R84" s="124"/>
+      <c r="S84" s="127"/>
+      <c r="T84" s="126"/>
+      <c r="U84" s="127"/>
+    </row>
+    <row r="85" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A85" s="55"/>
+      <c r="B85" s="102">
+        <v>77</v>
+      </c>
+      <c r="C85" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="D85" s="54"/>
+      <c r="E85" s="130"/>
+      <c r="F85" s="97" t="s">
         <v>314</v>
       </c>
-      <c r="U63" s="22"/>
+      <c r="G85" s="98">
+        <v>16</v>
+      </c>
+      <c r="H85" s="98">
+        <v>120</v>
+      </c>
+      <c r="I85" s="99">
+        <v>120</v>
+      </c>
+      <c r="J85" s="122"/>
+      <c r="K85" s="123"/>
+      <c r="L85" s="128"/>
+      <c r="M85" s="131" t="s">
+        <v>173</v>
+      </c>
+      <c r="N85" s="126" t="s">
+        <v>353</v>
+      </c>
+      <c r="O85" s="125"/>
+      <c r="P85" s="126"/>
+      <c r="Q85" s="131"/>
+      <c r="R85" s="126"/>
+      <c r="S85" s="125"/>
+      <c r="T85" s="128"/>
+      <c r="U85" s="127"/>
     </row>
-    <row r="64" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A64" s="76"/>
-      <c r="B64" s="8">
-        <v>57</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="D64" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="E64" s="23"/>
-      <c r="F64" s="44">
-        <v>2</v>
-      </c>
-      <c r="G64" s="45">
+    <row r="86" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A86" s="55"/>
+      <c r="B86" s="102">
+        <v>78</v>
+      </c>
+      <c r="C86" s="54" t="s">
+        <v>354</v>
+      </c>
+      <c r="D86" s="54"/>
+      <c r="E86" s="130"/>
+      <c r="F86" s="97" t="s">
+        <v>314</v>
+      </c>
+      <c r="G86" s="98">
         <v>16</v>
       </c>
-      <c r="H64" s="62">
-        <v>440</v>
-      </c>
-      <c r="I64" s="62">
-        <v>480</v>
-      </c>
-      <c r="J64" s="14"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N64" s="14"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q64" s="15"/>
-      <c r="R64" s="14"/>
-      <c r="S64" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="T64" s="14"/>
-      <c r="U64" s="15"/>
-    </row>
-    <row r="65" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A65" s="76"/>
-      <c r="B65" s="8">
-        <v>58</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="E65" s="23"/>
-      <c r="F65" s="44">
-        <v>2</v>
-      </c>
-      <c r="G65" s="45">
-        <v>16</v>
-      </c>
-      <c r="H65" s="62">
-        <v>440</v>
-      </c>
-      <c r="I65" s="62">
-        <v>480</v>
-      </c>
-      <c r="J65" s="14"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M65" s="15"/>
-      <c r="N65" s="14"/>
-      <c r="O65" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="P65" s="14"/>
-      <c r="Q65" s="15"/>
-      <c r="R65" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="S65" s="15"/>
-      <c r="T65" s="14"/>
-      <c r="U65" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A66" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="B66" s="8">
-        <v>59</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="D66" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="E66" s="23"/>
-      <c r="F66" s="44">
-        <v>2</v>
-      </c>
-      <c r="G66" s="45">
-        <v>16</v>
-      </c>
-      <c r="H66" s="62">
-        <v>440</v>
-      </c>
-      <c r="I66" s="62">
-        <v>480</v>
-      </c>
-      <c r="J66" s="14"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="M66" s="15"/>
-      <c r="N66" s="14"/>
-      <c r="O66" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="P66" s="14"/>
-      <c r="Q66" s="15"/>
-      <c r="R66" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="S66" s="15"/>
-      <c r="T66" s="14"/>
-      <c r="U66" s="15"/>
-    </row>
-    <row r="67" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A67" s="76"/>
-      <c r="B67" s="8">
-        <v>60</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="D67" s="23" t="s">
-        <v>322</v>
-      </c>
-      <c r="E67" s="23"/>
-      <c r="F67" s="44">
-        <v>2</v>
-      </c>
-      <c r="G67" s="45">
-        <v>16</v>
-      </c>
-      <c r="H67" s="62">
-        <v>440</v>
-      </c>
-      <c r="I67" s="62">
-        <v>480</v>
-      </c>
-      <c r="J67" s="14"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="N67" s="14"/>
-      <c r="O67" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="P67" s="14"/>
-      <c r="Q67" s="15"/>
-      <c r="R67" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="S67" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="T67" s="14"/>
-      <c r="U67" s="15"/>
-    </row>
-    <row r="68" spans="1:21" ht="40.5">
-      <c r="A68" s="76"/>
-      <c r="B68" s="8">
-        <v>61</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="D68" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="E68" s="23"/>
-      <c r="F68" s="44">
-        <v>3</v>
-      </c>
-      <c r="G68" s="45">
-        <v>21</v>
-      </c>
-      <c r="H68" s="62">
-        <v>550</v>
-      </c>
-      <c r="I68" s="62">
-        <v>610</v>
-      </c>
-      <c r="J68" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="K68" s="64"/>
-      <c r="L68" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="M68" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="N68" s="14"/>
-      <c r="O68" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="P68" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q68" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="R68" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="S68" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="T68" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="U68" s="22" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A69" s="76"/>
-      <c r="B69" s="8">
-        <v>62</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="D69" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="E69" s="23"/>
-      <c r="F69" s="44">
-        <v>2</v>
-      </c>
-      <c r="G69" s="45">
-        <v>16</v>
-      </c>
-      <c r="H69" s="62">
-        <v>440</v>
-      </c>
-      <c r="I69" s="62">
-        <v>480</v>
-      </c>
-      <c r="J69" s="14"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="O69" s="15"/>
-      <c r="P69" s="14"/>
-      <c r="Q69" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="R69" s="14"/>
-      <c r="S69" s="15"/>
-      <c r="T69" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="U69" s="15"/>
-    </row>
-    <row r="70" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A70" s="76"/>
-      <c r="B70" s="8">
-        <v>63</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="D70" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="E70" s="23"/>
-      <c r="F70" s="44">
-        <v>2</v>
-      </c>
-      <c r="G70" s="45">
-        <v>16</v>
-      </c>
-      <c r="H70" s="62">
-        <v>440</v>
-      </c>
-      <c r="I70" s="62">
-        <v>480</v>
-      </c>
-      <c r="J70" s="14"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="M70" s="15"/>
-      <c r="N70" s="14"/>
-      <c r="O70" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="P70" s="14"/>
-      <c r="Q70" s="15"/>
-      <c r="R70" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="S70" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="T70" s="14"/>
-      <c r="U70" s="15"/>
-    </row>
-    <row r="71" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A71" s="75" t="s">
-        <v>339</v>
-      </c>
-      <c r="B71" s="8">
-        <v>64</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="D71" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="E71" s="23"/>
-      <c r="F71" s="44">
-        <v>2</v>
-      </c>
-      <c r="G71" s="45">
-        <v>16</v>
-      </c>
-      <c r="H71" s="62">
-        <v>440</v>
-      </c>
-      <c r="I71" s="62">
-        <v>480</v>
-      </c>
-      <c r="J71" s="14"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="N71" s="14"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q71" s="15"/>
-      <c r="R71" s="14"/>
-      <c r="S71" s="15"/>
-      <c r="T71" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="U71" s="15"/>
-    </row>
-    <row r="72" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A72" s="75"/>
-      <c r="B72" s="8">
-        <v>65</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="D72" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="E72" s="23"/>
-      <c r="F72" s="44">
-        <v>2</v>
-      </c>
-      <c r="G72" s="45">
-        <v>16</v>
-      </c>
-      <c r="H72" s="62">
-        <v>440</v>
-      </c>
-      <c r="I72" s="62">
-        <v>480</v>
-      </c>
-      <c r="J72" s="14"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="N72" s="14"/>
-      <c r="O72" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="P72" s="14"/>
-      <c r="Q72" s="15"/>
-      <c r="R72" s="14"/>
-      <c r="S72" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="T72" s="14"/>
-      <c r="U72" s="15"/>
-    </row>
-    <row r="73" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A73" s="75"/>
-      <c r="B73" s="8">
-        <v>66</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="D73" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="E73" s="23"/>
-      <c r="F73" s="44">
-        <v>2</v>
-      </c>
-      <c r="G73" s="45">
-        <v>16</v>
-      </c>
-      <c r="H73" s="62">
-        <v>440</v>
-      </c>
-      <c r="I73" s="62">
-        <v>480</v>
-      </c>
-      <c r="J73" s="14"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="M73" s="15"/>
-      <c r="N73" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="O73" s="15"/>
-      <c r="P73" s="14"/>
-      <c r="Q73" s="15"/>
-      <c r="R73" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="S73" s="15"/>
-      <c r="T73" s="14"/>
-      <c r="U73" s="15" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A74" s="75" t="s">
-        <v>347</v>
-      </c>
-      <c r="B74" s="8">
-        <v>67</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="D74" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="E74" s="23"/>
-      <c r="F74" s="44">
-        <v>2</v>
-      </c>
-      <c r="G74" s="45">
-        <v>16</v>
-      </c>
-      <c r="H74" s="62">
-        <v>440</v>
-      </c>
-      <c r="I74" s="62">
-        <v>480</v>
-      </c>
-      <c r="J74" s="14"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="O74" s="15"/>
-      <c r="P74" s="14"/>
-      <c r="Q74" s="15"/>
-      <c r="R74" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="S74" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="T74" s="14"/>
-      <c r="U74" s="15"/>
-    </row>
-    <row r="75" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A75" s="76"/>
-      <c r="B75" s="8">
-        <v>68</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="D75" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="E75" s="23"/>
-      <c r="F75" s="44">
-        <v>2</v>
-      </c>
-      <c r="G75" s="45">
-        <v>16</v>
-      </c>
-      <c r="H75" s="62">
-        <v>440</v>
-      </c>
-      <c r="I75" s="62">
-        <v>480</v>
-      </c>
-      <c r="J75" s="14"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="N75" s="14"/>
-      <c r="O75" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="P75" s="14"/>
-      <c r="Q75" s="15"/>
-      <c r="R75" s="14"/>
-      <c r="S75" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="T75" s="14"/>
-      <c r="U75" s="15"/>
-    </row>
-    <row r="76" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A76" s="75" t="s">
-        <v>352</v>
-      </c>
-      <c r="B76" s="8">
-        <v>69</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="D76" s="43" t="s">
-        <v>353</v>
-      </c>
-      <c r="E76" s="43"/>
-      <c r="F76" s="41">
-        <v>2</v>
-      </c>
-      <c r="G76" s="65">
-        <v>16</v>
-      </c>
-      <c r="H76" s="37">
-        <v>440</v>
-      </c>
-      <c r="I76" s="62">
-        <v>480</v>
-      </c>
-      <c r="J76" s="14"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="M76" s="22"/>
-      <c r="N76" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="O76" s="22" t="s">
+      <c r="H86" s="98">
+        <v>120</v>
+      </c>
+      <c r="I86" s="99">
+        <v>120</v>
+      </c>
+      <c r="J86" s="122"/>
+      <c r="K86" s="123"/>
+      <c r="L86" s="124" t="s">
         <v>355</v>
       </c>
-      <c r="P76" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q76" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="R76" s="16" t="s">
+      <c r="M86" s="131" t="s">
         <v>356</v>
       </c>
-      <c r="S76" s="15"/>
-      <c r="T76" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="U76" s="15"/>
-    </row>
-    <row r="77" spans="1:21" ht="31.35" customHeight="1">
-      <c r="A77" s="76"/>
-      <c r="B77" s="8">
-        <v>70</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="D77" s="43" t="s">
+      <c r="N86" s="124" t="s">
         <v>357</v>
       </c>
-      <c r="E77" s="43"/>
-      <c r="F77" s="41">
-        <v>2</v>
-      </c>
-      <c r="G77" s="65">
-        <v>21</v>
-      </c>
-      <c r="H77" s="37">
-        <v>550</v>
-      </c>
-      <c r="I77" s="37">
-        <v>610</v>
-      </c>
-      <c r="J77" s="14"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="M77" s="15"/>
-      <c r="N77" s="14"/>
-      <c r="O77" s="22" t="s">
+      <c r="O86" s="131" t="s">
         <v>358</v>
       </c>
-      <c r="P77" s="14"/>
-      <c r="Q77" s="22"/>
-      <c r="R77" s="14" t="s">
+      <c r="P86" s="128"/>
+      <c r="Q86" s="127"/>
+      <c r="R86" s="126" t="s">
+        <v>286</v>
+      </c>
+      <c r="S86" s="127" t="s">
         <v>359</v>
       </c>
-      <c r="S77" s="22"/>
-      <c r="T77" s="14"/>
-      <c r="U77" s="22"/>
+      <c r="T86" s="124" t="s">
+        <v>360</v>
+      </c>
+      <c r="U86" s="127"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:G3"/>
+  <mergeCells count="43">
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A64:A71"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="F51:I51"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
@@ -11047,25 +11476,12 @@
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A34:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.27559055118110237" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
